--- a/CryptoData.xlsx
+++ b/CryptoData.xlsx
@@ -429,4004 +429,4004 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>43974.54166666666</v>
+        <v>43977</v>
       </c>
       <c r="B2">
-        <v>9184.950000000001</v>
+        <v>8905.77</v>
       </c>
       <c r="C2">
-        <v>9185.84</v>
+        <v>8938.42</v>
       </c>
       <c r="D2">
-        <v>9084.83</v>
+        <v>8885.68</v>
       </c>
       <c r="E2">
-        <v>9138.43</v>
+        <v>8903.559999999999</v>
       </c>
       <c r="F2">
-        <v>223.08367513</v>
+        <v>137.95407257</v>
       </c>
       <c r="G2">
-        <v>2037688.443453418</v>
+        <v>1230817.648003454</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>43974.58333333334</v>
+        <v>43977.04166666666</v>
       </c>
       <c r="B3">
-        <v>9129.01</v>
+        <v>8903.219999999999</v>
       </c>
       <c r="C3">
-        <v>9176.209999999999</v>
+        <v>8923.83</v>
       </c>
       <c r="D3">
-        <v>9113.99</v>
+        <v>8825.059999999999</v>
       </c>
       <c r="E3">
-        <v>9152.49</v>
+        <v>8858.629999999999</v>
       </c>
       <c r="F3">
-        <v>94.93587253</v>
+        <v>336.31435084</v>
       </c>
       <c r="G3">
-        <v>868523.3026149586</v>
+        <v>2980237.197713779</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>43974.625</v>
+        <v>43977.08333333334</v>
       </c>
       <c r="B4">
-        <v>9152.450000000001</v>
+        <v>8863.02</v>
       </c>
       <c r="C4">
-        <v>9224.24</v>
+        <v>8890.15</v>
       </c>
       <c r="D4">
-        <v>9140.700000000001</v>
+        <v>8854.25</v>
       </c>
       <c r="E4">
-        <v>9198.450000000001</v>
+        <v>8886.4</v>
       </c>
       <c r="F4">
-        <v>98.52680965</v>
+        <v>106.10291565</v>
       </c>
       <c r="G4">
-        <v>905601.3639667066</v>
+        <v>941267.6826576404</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>43974.66666666666</v>
+        <v>43977.125</v>
       </c>
       <c r="B5">
-        <v>9205.030000000001</v>
+        <v>8886.4</v>
       </c>
       <c r="C5">
-        <v>9216.08</v>
+        <v>8917.99</v>
       </c>
       <c r="D5">
-        <v>9167.200000000001</v>
+        <v>8873.959999999999</v>
       </c>
       <c r="E5">
-        <v>9202.200000000001</v>
+        <v>8881.280000000001</v>
       </c>
       <c r="F5">
-        <v>84.54188517999999</v>
+        <v>68.61590563</v>
       </c>
       <c r="G5">
-        <v>777250.5489089717</v>
+        <v>610563.9375236076</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>43974.70833333334</v>
+        <v>43977.16666666666</v>
       </c>
       <c r="B6">
-        <v>9198.08</v>
+        <v>8875.82</v>
       </c>
       <c r="C6">
-        <v>9216.08</v>
+        <v>8931.940000000001</v>
       </c>
       <c r="D6">
-        <v>9139.01</v>
+        <v>8868.59</v>
       </c>
       <c r="E6">
-        <v>9180</v>
+        <v>8901.57</v>
       </c>
       <c r="F6">
-        <v>123.3093383</v>
+        <v>136.89695968</v>
       </c>
       <c r="G6">
-        <v>1130776.886376776</v>
+        <v>1218921.106482446</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>43974.75</v>
+        <v>43977.20833333334</v>
       </c>
       <c r="B7">
-        <v>9175.360000000001</v>
+        <v>8895.879999999999</v>
       </c>
       <c r="C7">
-        <v>9205.309999999999</v>
+        <v>8922.35</v>
       </c>
       <c r="D7">
-        <v>9161.16</v>
+        <v>8872.01</v>
       </c>
       <c r="E7">
-        <v>9177.82</v>
+        <v>8901.34</v>
       </c>
       <c r="F7">
-        <v>40.96841268</v>
+        <v>186.97339429</v>
       </c>
       <c r="G7">
-        <v>376258.5956714686</v>
+        <v>1664927.273809442</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>43974.79166666666</v>
+        <v>43977.25</v>
       </c>
       <c r="B8">
-        <v>9184.92</v>
+        <v>8903</v>
       </c>
       <c r="C8">
-        <v>9210.51</v>
+        <v>8939.440000000001</v>
       </c>
       <c r="D8">
-        <v>9147.1</v>
+        <v>8890.49</v>
       </c>
       <c r="E8">
-        <v>9155.41</v>
+        <v>8930.77</v>
       </c>
       <c r="F8">
-        <v>71.5148428</v>
+        <v>149.43675869</v>
       </c>
       <c r="G8">
-        <v>656422.3281150297</v>
+        <v>1332473.485908578</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>43974.83333333334</v>
+        <v>43977.29166666666</v>
       </c>
       <c r="B9">
-        <v>9165.6</v>
+        <v>8938.42</v>
       </c>
       <c r="C9">
-        <v>9199.51</v>
+        <v>8938.42</v>
       </c>
       <c r="D9">
-        <v>9125.459999999999</v>
+        <v>8880.27</v>
       </c>
       <c r="E9">
-        <v>9184.690000000001</v>
+        <v>8888</v>
       </c>
       <c r="F9">
-        <v>77.16522565</v>
+        <v>154.16850037</v>
       </c>
       <c r="G9">
-        <v>707462.8513981981</v>
+        <v>1372884.0717479</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>43974.875</v>
+        <v>43977.33333333334</v>
       </c>
       <c r="B10">
-        <v>9183.33</v>
+        <v>8885</v>
       </c>
       <c r="C10">
-        <v>9255.799999999999</v>
+        <v>8965.26</v>
       </c>
       <c r="D10">
-        <v>9165.99</v>
+        <v>8858.360000000001</v>
       </c>
       <c r="E10">
-        <v>9234.610000000001</v>
+        <v>8959.139999999999</v>
       </c>
       <c r="F10">
-        <v>214.23865448</v>
+        <v>308.1695339</v>
       </c>
       <c r="G10">
-        <v>1978617.504823516</v>
+        <v>2749414.511913874</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>43974.91666666666</v>
+        <v>43977.375</v>
       </c>
       <c r="B11">
-        <v>9233.950000000001</v>
+        <v>8953.879999999999</v>
       </c>
       <c r="C11">
-        <v>9246.73</v>
+        <v>9012</v>
       </c>
       <c r="D11">
-        <v>9211.129999999999</v>
+        <v>8945.450000000001</v>
       </c>
       <c r="E11">
-        <v>9226.65</v>
+        <v>8965.27</v>
       </c>
       <c r="F11">
-        <v>34.75730062</v>
+        <v>231.22681399</v>
       </c>
       <c r="G11">
-        <v>320722.1356740265</v>
+        <v>2077774.719792085</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>43974.95833333334</v>
+        <v>43977.41666666666</v>
       </c>
       <c r="B12">
-        <v>9229.5</v>
+        <v>8961.129999999999</v>
       </c>
       <c r="C12">
-        <v>9252.49</v>
+        <v>8995.530000000001</v>
       </c>
       <c r="D12">
-        <v>9213.120000000001</v>
+        <v>8868.99</v>
       </c>
       <c r="E12">
-        <v>9233.15</v>
+        <v>8891.25</v>
       </c>
       <c r="F12">
-        <v>51.36422748</v>
+        <v>335.05486575</v>
       </c>
       <c r="G12">
-        <v>474252.3352061492</v>
+        <v>2990993.570852858</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>43975</v>
+        <v>43977.45833333334</v>
       </c>
       <c r="B13">
-        <v>9233.48</v>
+        <v>8887</v>
       </c>
       <c r="C13">
-        <v>9233.780000000001</v>
+        <v>8898.219999999999</v>
       </c>
       <c r="D13">
-        <v>9150.24</v>
+        <v>8831.219999999999</v>
       </c>
       <c r="E13">
-        <v>9183.459999999999</v>
+        <v>8865.450000000001</v>
       </c>
       <c r="F13">
-        <v>131.99117549</v>
+        <v>391.98669042</v>
       </c>
       <c r="G13">
-        <v>1212158.126401889</v>
+        <v>3474255.650459705</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>43975.04166666666</v>
+        <v>43977.5</v>
       </c>
       <c r="B14">
-        <v>9183.93</v>
+        <v>8862.120000000001</v>
       </c>
       <c r="C14">
-        <v>9213</v>
+        <v>8884.959999999999</v>
       </c>
       <c r="D14">
-        <v>9122.58</v>
+        <v>8837.950000000001</v>
       </c>
       <c r="E14">
-        <v>9201.9</v>
+        <v>8865</v>
       </c>
       <c r="F14">
-        <v>132.59808841</v>
+        <v>101.99786884</v>
       </c>
       <c r="G14">
-        <v>1216699.646069448</v>
+        <v>904193.2152384114</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>43975.08333333334</v>
+        <v>43977.54166666666</v>
       </c>
       <c r="B15">
-        <v>9203.49</v>
+        <v>8860.25</v>
       </c>
       <c r="C15">
-        <v>9215.07</v>
+        <v>8911.65</v>
       </c>
       <c r="D15">
-        <v>9176.059999999999</v>
+        <v>8784.49</v>
       </c>
       <c r="E15">
-        <v>9176.24</v>
+        <v>8810.889999999999</v>
       </c>
       <c r="F15">
-        <v>47.81117527</v>
+        <v>488.3082429</v>
       </c>
       <c r="G15">
-        <v>439710.6157743855</v>
+        <v>4326615.610436844</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>43975.125</v>
+        <v>43977.58333333334</v>
       </c>
       <c r="B16">
-        <v>9181.9</v>
+        <v>8810</v>
       </c>
       <c r="C16">
-        <v>9229.98</v>
+        <v>8870.58</v>
       </c>
       <c r="D16">
-        <v>9181.9</v>
+        <v>8784.09</v>
       </c>
       <c r="E16">
-        <v>9203.120000000001</v>
+        <v>8808.99</v>
       </c>
       <c r="F16">
-        <v>41.90640715</v>
+        <v>321.29315853</v>
       </c>
       <c r="G16">
-        <v>386126.1473026262</v>
+        <v>2835666.094182935</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>43975.16666666666</v>
+        <v>43977.625</v>
       </c>
       <c r="B17">
-        <v>9207.09</v>
+        <v>8806</v>
       </c>
       <c r="C17">
-        <v>9221.25</v>
+        <v>8862.870000000001</v>
       </c>
       <c r="D17">
-        <v>9184.059999999999</v>
+        <v>8794.82</v>
       </c>
       <c r="E17">
-        <v>9198.129999999999</v>
+        <v>8817.6</v>
       </c>
       <c r="F17">
-        <v>30.43966597</v>
+        <v>251.32684919</v>
       </c>
       <c r="G17">
-        <v>280013.9598381409</v>
+        <v>2218554.122004766</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>43975.20833333334</v>
+        <v>43977.66666666666</v>
       </c>
       <c r="B18">
-        <v>9201.09</v>
+        <v>8817.459999999999</v>
       </c>
       <c r="C18">
-        <v>9223.299999999999</v>
+        <v>8836.76</v>
       </c>
       <c r="D18">
-        <v>9195.43</v>
+        <v>8700</v>
       </c>
       <c r="E18">
-        <v>9196</v>
+        <v>8726.1</v>
       </c>
       <c r="F18">
-        <v>53.00245957</v>
+        <v>656.40819877</v>
       </c>
       <c r="G18">
-        <v>488265.0466793724</v>
+        <v>5750781.036424492</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>43975.25</v>
+        <v>43977.70833333334</v>
       </c>
       <c r="B19">
-        <v>9203.360000000001</v>
+        <v>8716.049999999999</v>
       </c>
       <c r="C19">
-        <v>9220.91</v>
+        <v>8806.309999999999</v>
       </c>
       <c r="D19">
-        <v>9188.870000000001</v>
+        <v>8690</v>
       </c>
       <c r="E19">
-        <v>9208.24</v>
+        <v>8783.299999999999</v>
       </c>
       <c r="F19">
-        <v>17.97653558</v>
+        <v>305.63844551</v>
       </c>
       <c r="G19">
-        <v>165527.4088581971</v>
+        <v>2677275.251715945</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>43975.29166666666</v>
+        <v>43977.75</v>
       </c>
       <c r="B20">
-        <v>9208.24</v>
+        <v>8783.33</v>
       </c>
       <c r="C20">
-        <v>9310.91</v>
+        <v>8819</v>
       </c>
       <c r="D20">
-        <v>9208.24</v>
+        <v>8776.790000000001</v>
       </c>
       <c r="E20">
-        <v>9282.030000000001</v>
+        <v>8810</v>
       </c>
       <c r="F20">
-        <v>517.01230872</v>
+        <v>197.146627</v>
       </c>
       <c r="G20">
-        <v>4803181.569473533</v>
+        <v>1735088.187564015</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>43975.33333333334</v>
+        <v>43977.79166666666</v>
       </c>
       <c r="B21">
-        <v>9286.049999999999</v>
+        <v>8815</v>
       </c>
       <c r="C21">
-        <v>9299.120000000001</v>
+        <v>8822.450000000001</v>
       </c>
       <c r="D21">
-        <v>9247.459999999999</v>
+        <v>8791.09</v>
       </c>
       <c r="E21">
-        <v>9262.719999999999</v>
+        <v>8809</v>
       </c>
       <c r="F21">
-        <v>215.51480836</v>
+        <v>336.18919222</v>
       </c>
       <c r="G21">
-        <v>1998287.248179589</v>
+        <v>2960316.638754431</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>43975.375</v>
+        <v>43977.83333333334</v>
       </c>
       <c r="B22">
-        <v>9271.17</v>
+        <v>8807.07</v>
       </c>
       <c r="C22">
-        <v>9287.25</v>
+        <v>8808.959999999999</v>
       </c>
       <c r="D22">
-        <v>9247.01</v>
+        <v>8756.450000000001</v>
       </c>
       <c r="E22">
-        <v>9261.469999999999</v>
+        <v>8790.450000000001</v>
       </c>
       <c r="F22">
-        <v>135.16969395</v>
+        <v>346.14890895</v>
       </c>
       <c r="G22">
-        <v>1252434.135321371</v>
+        <v>3038685.966867909</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>43975.41666666666</v>
+        <v>43977.875</v>
       </c>
       <c r="B23">
-        <v>9262.35</v>
+        <v>8796.1</v>
       </c>
       <c r="C23">
-        <v>9305.290000000001</v>
+        <v>8883.209999999999</v>
       </c>
       <c r="D23">
-        <v>9261.33</v>
+        <v>8788.5</v>
       </c>
       <c r="E23">
-        <v>9280.629999999999</v>
+        <v>8864.1</v>
       </c>
       <c r="F23">
-        <v>70.43082551000001</v>
+        <v>263.21818121</v>
       </c>
       <c r="G23">
-        <v>654262.0903486154</v>
+        <v>2327412.041462576</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>43975.45833333334</v>
+        <v>43977.91666666666</v>
       </c>
       <c r="B24">
-        <v>9273.58</v>
+        <v>8871.559999999999</v>
       </c>
       <c r="C24">
-        <v>9295</v>
+        <v>8879.639999999999</v>
       </c>
       <c r="D24">
-        <v>9256.15</v>
+        <v>8830.940000000001</v>
       </c>
       <c r="E24">
-        <v>9269.99</v>
+        <v>8843.48</v>
       </c>
       <c r="F24">
-        <v>72.00286158999999</v>
+        <v>60.90567841</v>
       </c>
       <c r="G24">
-        <v>667965.7437532876</v>
+        <v>539176.5464119908</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>43975.5</v>
+        <v>43977.95833333334</v>
       </c>
       <c r="B25">
-        <v>9267.459999999999</v>
+        <v>8850.209999999999</v>
       </c>
       <c r="C25">
-        <v>9268.190000000001</v>
+        <v>8850.23</v>
       </c>
       <c r="D25">
-        <v>9071.01</v>
+        <v>8801.059999999999</v>
       </c>
       <c r="E25">
-        <v>9104.33</v>
+        <v>8829.200000000001</v>
       </c>
       <c r="F25">
-        <v>877.37496538</v>
+        <v>132.78206022</v>
       </c>
       <c r="G25">
-        <v>8028331.485815321</v>
+        <v>1172138.998757242</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>43975.54166666666</v>
+        <v>43978</v>
       </c>
       <c r="B26">
-        <v>9106.58</v>
+        <v>8829.299999999999</v>
       </c>
       <c r="C26">
-        <v>9181.6</v>
+        <v>8858.360000000001</v>
       </c>
       <c r="D26">
-        <v>9082</v>
+        <v>8810.9</v>
       </c>
       <c r="E26">
-        <v>9159</v>
+        <v>8840.91</v>
       </c>
       <c r="F26">
-        <v>368.47911925</v>
+        <v>54.6725988</v>
       </c>
       <c r="G26">
-        <v>3362489.262621009</v>
+        <v>483311.4644272343</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>43975.58333333334</v>
+        <v>43978.04166666666</v>
       </c>
       <c r="B27">
-        <v>9159</v>
+        <v>8835.790000000001</v>
       </c>
       <c r="C27">
-        <v>9160.780000000001</v>
+        <v>8895.629999999999</v>
       </c>
       <c r="D27">
-        <v>9034.07</v>
+        <v>8831.23</v>
       </c>
       <c r="E27">
-        <v>9086.290000000001</v>
+        <v>8882.049999999999</v>
       </c>
       <c r="F27">
-        <v>361.98560568</v>
+        <v>211.81060143</v>
       </c>
       <c r="G27">
-        <v>3287472.05535078</v>
+        <v>1877808.293864683</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>43975.625</v>
+        <v>43978.08333333334</v>
       </c>
       <c r="B28">
-        <v>9079.85</v>
+        <v>8882.209999999999</v>
       </c>
       <c r="C28">
-        <v>9091.57</v>
+        <v>8890</v>
       </c>
       <c r="D28">
-        <v>9000</v>
+        <v>8846.35</v>
       </c>
       <c r="E28">
-        <v>9078.67</v>
+        <v>8849.690000000001</v>
       </c>
       <c r="F28">
-        <v>470.63915879</v>
+        <v>79.63900129</v>
       </c>
       <c r="G28">
-        <v>4253889.354016988</v>
+        <v>705868.8564920035</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>43975.66666666666</v>
+        <v>43978.125</v>
       </c>
       <c r="B29">
-        <v>9068.02</v>
+        <v>8856.09</v>
       </c>
       <c r="C29">
-        <v>9092.200000000001</v>
+        <v>8876.969999999999</v>
       </c>
       <c r="D29">
-        <v>9025.65</v>
+        <v>8810.99</v>
       </c>
       <c r="E29">
-        <v>9061.110000000001</v>
+        <v>8817.370000000001</v>
       </c>
       <c r="F29">
-        <v>261.6501954</v>
+        <v>100.35184748</v>
       </c>
       <c r="G29">
-        <v>2370849.277216054</v>
+        <v>887603.2368385119</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>43975.70833333334</v>
+        <v>43978.16666666666</v>
       </c>
       <c r="B30">
-        <v>9051.719999999999</v>
+        <v>8815.17</v>
       </c>
       <c r="C30">
-        <v>9051.719999999999</v>
+        <v>8851.6</v>
       </c>
       <c r="D30">
-        <v>8842.43</v>
+        <v>8815.17</v>
       </c>
       <c r="E30">
-        <v>8940.4</v>
+        <v>8827.280000000001</v>
       </c>
       <c r="F30">
-        <v>1992.01314741</v>
+        <v>37.15653241</v>
       </c>
       <c r="G30">
-        <v>17747208.52234674</v>
+        <v>328462.4109807009</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>43975.75</v>
+        <v>43978.20833333334</v>
       </c>
       <c r="B31">
-        <v>8930.120000000001</v>
+        <v>8832.32</v>
       </c>
       <c r="C31">
-        <v>8985.9</v>
+        <v>8858.360000000001</v>
       </c>
       <c r="D31">
-        <v>8920.959999999999</v>
+        <v>8824.93</v>
       </c>
       <c r="E31">
-        <v>8940.620000000001</v>
+        <v>8858.360000000001</v>
       </c>
       <c r="F31">
-        <v>281.5960192</v>
+        <v>44.3544366</v>
       </c>
       <c r="G31">
-        <v>2520225.901714898</v>
+        <v>392113.7790080482</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>43975.79166666666</v>
+        <v>43978.25</v>
       </c>
       <c r="B32">
-        <v>8937.41</v>
+        <v>8858.360000000001</v>
       </c>
       <c r="C32">
-        <v>9000</v>
+        <v>8878.01</v>
       </c>
       <c r="D32">
-        <v>8890.780000000001</v>
+        <v>8850.6</v>
       </c>
       <c r="E32">
-        <v>8939.58</v>
+        <v>8870.33</v>
       </c>
       <c r="F32">
-        <v>535.7493472899999</v>
+        <v>93.93586257</v>
       </c>
       <c r="G32">
-        <v>4806888.731564407</v>
+        <v>832759.6483045485</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>43975.83333333334</v>
+        <v>43978.29166666666</v>
       </c>
       <c r="B33">
-        <v>8937.49</v>
+        <v>8874.309999999999</v>
       </c>
       <c r="C33">
-        <v>9035.450000000001</v>
+        <v>8884.959999999999</v>
       </c>
       <c r="D33">
-        <v>8933.059999999999</v>
+        <v>8830.969999999999</v>
       </c>
       <c r="E33">
-        <v>9016.73</v>
+        <v>8846.389999999999</v>
       </c>
       <c r="F33">
-        <v>228.00248139</v>
+        <v>80.73453404999999</v>
       </c>
       <c r="G33">
-        <v>2050730.303498082</v>
+        <v>714251.4207730885</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>43975.875</v>
+        <v>43978.33333333334</v>
       </c>
       <c r="B34">
-        <v>9015.809999999999</v>
+        <v>8848.559999999999</v>
       </c>
       <c r="C34">
-        <v>9042.209999999999</v>
+        <v>8860</v>
       </c>
       <c r="D34">
-        <v>8981.41</v>
+        <v>8831.83</v>
       </c>
       <c r="E34">
-        <v>9001</v>
+        <v>8844.85</v>
       </c>
       <c r="F34">
-        <v>171.79850675</v>
+        <v>83.56991198999999</v>
       </c>
       <c r="G34">
-        <v>1547731.672590796</v>
+        <v>739284.185158412</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>43975.91666666666</v>
+        <v>43978.375</v>
       </c>
       <c r="B35">
-        <v>9001</v>
+        <v>8843.84</v>
       </c>
       <c r="C35">
-        <v>9085.299999999999</v>
+        <v>8959.889999999999</v>
       </c>
       <c r="D35">
-        <v>8997.83</v>
+        <v>8843.84</v>
       </c>
       <c r="E35">
-        <v>9062.42</v>
+        <v>8928.02</v>
       </c>
       <c r="F35">
-        <v>150.67468591</v>
+        <v>449.40274337</v>
       </c>
       <c r="G35">
-        <v>1363597.039221868</v>
+        <v>4009706.837861082</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>43975.95833333334</v>
+        <v>43978.41666666666</v>
       </c>
       <c r="B36">
-        <v>9057.139999999999</v>
+        <v>8934.99</v>
       </c>
       <c r="C36">
-        <v>9064.1</v>
+        <v>8941.33</v>
       </c>
       <c r="D36">
-        <v>9011.41</v>
+        <v>8902.879999999999</v>
       </c>
       <c r="E36">
-        <v>9037.76</v>
+        <v>8929.629999999999</v>
       </c>
       <c r="F36">
-        <v>264.21864485</v>
+        <v>153.90802016</v>
       </c>
       <c r="G36">
-        <v>2388049.671404421</v>
+        <v>1373120.417939012</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>43976</v>
+        <v>43978.45833333334</v>
       </c>
       <c r="B37">
-        <v>9040.440000000001</v>
+        <v>8924.98</v>
       </c>
       <c r="C37">
-        <v>9047.700000000001</v>
+        <v>9206.99</v>
       </c>
       <c r="D37">
-        <v>8669</v>
+        <v>8922.35</v>
       </c>
       <c r="E37">
-        <v>8710</v>
+        <v>9128.799999999999</v>
       </c>
       <c r="F37">
-        <v>1552.09627745</v>
+        <v>1075.30634852</v>
       </c>
       <c r="G37">
-        <v>13661276.69197854</v>
+        <v>9781503.391534545</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>43976.04166666666</v>
+        <v>43978.5</v>
       </c>
       <c r="B38">
-        <v>8710.700000000001</v>
+        <v>9124.18</v>
       </c>
       <c r="C38">
-        <v>8819.389999999999</v>
+        <v>9162.540000000001</v>
       </c>
       <c r="D38">
-        <v>8630</v>
+        <v>9111.389999999999</v>
       </c>
       <c r="E38">
-        <v>8812</v>
+        <v>9155.469999999999</v>
       </c>
       <c r="F38">
-        <v>1062.39090165</v>
+        <v>406.51402117</v>
       </c>
       <c r="G38">
-        <v>9309067.088690475</v>
+        <v>3713451.119354243</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>43976.08333333334</v>
+        <v>43978.54166666666</v>
       </c>
       <c r="B39">
-        <v>8808.42</v>
+        <v>9148.35</v>
       </c>
       <c r="C39">
-        <v>8808.42</v>
+        <v>9197.23</v>
       </c>
       <c r="D39">
-        <v>8760.129999999999</v>
+        <v>9130.4</v>
       </c>
       <c r="E39">
-        <v>8796.16</v>
+        <v>9144.450000000001</v>
       </c>
       <c r="F39">
-        <v>150.70412018</v>
+        <v>547.51485322</v>
       </c>
       <c r="G39">
-        <v>1323107.18335443</v>
+        <v>5016920.617983627</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>43976.125</v>
+        <v>43978.58333333334</v>
       </c>
       <c r="B40">
-        <v>8796.16</v>
+        <v>9151.74</v>
       </c>
       <c r="C40">
-        <v>8818.629999999999</v>
+        <v>9188.360000000001</v>
       </c>
       <c r="D40">
-        <v>8759.27</v>
+        <v>9128.049999999999</v>
       </c>
       <c r="E40">
-        <v>8790.4</v>
+        <v>9146.43</v>
       </c>
       <c r="F40">
-        <v>172.95153592</v>
+        <v>513.75000744</v>
       </c>
       <c r="G40">
-        <v>1520294.170308401</v>
+        <v>4702812.332419178</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>43976.16666666666</v>
+        <v>43978.625</v>
       </c>
       <c r="B41">
-        <v>8797</v>
+        <v>9148.98</v>
       </c>
       <c r="C41">
-        <v>8799.09</v>
+        <v>9177.9</v>
       </c>
       <c r="D41">
-        <v>8742.09</v>
+        <v>9119.91</v>
       </c>
       <c r="E41">
-        <v>8781.610000000001</v>
+        <v>9155.940000000001</v>
       </c>
       <c r="F41">
-        <v>159.87780083</v>
+        <v>239.96108001</v>
       </c>
       <c r="G41">
-        <v>1401523.009557484</v>
+        <v>2194765.969304668</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>43976.20833333334</v>
+        <v>43978.66666666666</v>
       </c>
       <c r="B42">
-        <v>8784.209999999999</v>
+        <v>9156.639999999999</v>
       </c>
       <c r="C42">
-        <v>8812</v>
+        <v>9230.209999999999</v>
       </c>
       <c r="D42">
-        <v>8764.059999999999</v>
+        <v>9118.370000000001</v>
       </c>
       <c r="E42">
-        <v>8804.83</v>
+        <v>9149.92</v>
       </c>
       <c r="F42">
-        <v>128.40487175</v>
+        <v>653.58087621</v>
       </c>
       <c r="G42">
-        <v>1129138.357749338</v>
+        <v>5988543.512578793</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>43976.25</v>
+        <v>43978.70833333334</v>
       </c>
       <c r="B43">
-        <v>8804.719999999999</v>
+        <v>9142.620000000001</v>
       </c>
       <c r="C43">
-        <v>8819.440000000001</v>
+        <v>9193.99</v>
       </c>
       <c r="D43">
-        <v>8756.530000000001</v>
+        <v>9138</v>
       </c>
       <c r="E43">
-        <v>8782.76</v>
+        <v>9171.25</v>
       </c>
       <c r="F43">
-        <v>288.62191043</v>
+        <v>268.94565871</v>
       </c>
       <c r="G43">
-        <v>2535254.303939302</v>
+        <v>2467171.439485317</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>43976.29166666666</v>
+        <v>43978.75</v>
       </c>
       <c r="B44">
-        <v>8780.969999999999</v>
+        <v>9168.620000000001</v>
       </c>
       <c r="C44">
-        <v>8814.07</v>
+        <v>9221.610000000001</v>
       </c>
       <c r="D44">
-        <v>8758</v>
+        <v>9162.26</v>
       </c>
       <c r="E44">
-        <v>8786.51</v>
+        <v>9190.9</v>
       </c>
       <c r="F44">
-        <v>322.79323079</v>
+        <v>225.80270071</v>
       </c>
       <c r="G44">
-        <v>2837062.678172982</v>
+        <v>2075986.713444101</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>43976.33333333334</v>
+        <v>43978.79166666666</v>
       </c>
       <c r="B45">
-        <v>8786.51</v>
+        <v>9194.610000000001</v>
       </c>
       <c r="C45">
-        <v>8874.309999999999</v>
+        <v>9203</v>
       </c>
       <c r="D45">
-        <v>8768.450000000001</v>
+        <v>9160.879999999999</v>
       </c>
       <c r="E45">
-        <v>8861.190000000001</v>
+        <v>9175</v>
       </c>
       <c r="F45">
-        <v>620.24912302</v>
+        <v>157.73850857</v>
       </c>
       <c r="G45">
-        <v>5476850.10458166</v>
+        <v>1447579.997335442</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>43976.375</v>
+        <v>43978.83333333334</v>
       </c>
       <c r="B46">
-        <v>8861.66</v>
+        <v>9175.01</v>
       </c>
       <c r="C46">
-        <v>8881.059999999999</v>
+        <v>9180</v>
       </c>
       <c r="D46">
-        <v>8806.440000000001</v>
+        <v>9138</v>
       </c>
       <c r="E46">
-        <v>8822.98</v>
+        <v>9159.690000000001</v>
       </c>
       <c r="F46">
-        <v>687.16574409</v>
+        <v>233.6649647</v>
       </c>
       <c r="G46">
-        <v>6072929.889548806</v>
+        <v>2139387.677157564</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>43976.41666666666</v>
+        <v>43978.875</v>
       </c>
       <c r="B47">
-        <v>8821.58</v>
+        <v>9160.209999999999</v>
       </c>
       <c r="C47">
-        <v>8873.92</v>
+        <v>9176.08</v>
       </c>
       <c r="D47">
-        <v>8712.65</v>
+        <v>9154.379999999999</v>
       </c>
       <c r="E47">
-        <v>8748</v>
+        <v>9164.49</v>
       </c>
       <c r="F47">
-        <v>808.24836066</v>
+        <v>256.89565512</v>
       </c>
       <c r="G47">
-        <v>7108498.855468237</v>
+        <v>2354862.325841961</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>43976.45833333334</v>
+        <v>43978.91666666666</v>
       </c>
       <c r="B48">
-        <v>8752.66</v>
+        <v>9164.51</v>
       </c>
       <c r="C48">
-        <v>8799.66</v>
+        <v>9165.17</v>
       </c>
       <c r="D48">
-        <v>8678.73</v>
+        <v>9062.26</v>
       </c>
       <c r="E48">
-        <v>8691.01</v>
+        <v>9063.139999999999</v>
       </c>
       <c r="F48">
-        <v>494.77510565</v>
+        <v>286.63903235</v>
       </c>
       <c r="G48">
-        <v>4324782.749930721</v>
+        <v>2610077.644030945</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>43976.5</v>
+        <v>43978.95833333334</v>
       </c>
       <c r="B49">
-        <v>8689.15</v>
+        <v>9062.780000000001</v>
       </c>
       <c r="C49">
-        <v>8764.879999999999</v>
+        <v>9126.34</v>
       </c>
       <c r="D49">
-        <v>8670.9</v>
+        <v>9051.73</v>
       </c>
       <c r="E49">
-        <v>8752.719999999999</v>
+        <v>9104.07</v>
       </c>
       <c r="F49">
-        <v>405.80430639</v>
+        <v>258.78784448</v>
       </c>
       <c r="G49">
-        <v>3540995.058897459</v>
+        <v>2355095.271721594</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>43976.54166666666</v>
+        <v>43979</v>
       </c>
       <c r="B50">
-        <v>8753.35</v>
+        <v>9104.07</v>
       </c>
       <c r="C50">
-        <v>8787.780000000001</v>
+        <v>9210</v>
       </c>
       <c r="D50">
-        <v>8731.77</v>
+        <v>9089.58</v>
       </c>
       <c r="E50">
-        <v>8756.98</v>
+        <v>9210</v>
       </c>
       <c r="F50">
-        <v>748.67085542</v>
+        <v>407.50911738</v>
       </c>
       <c r="G50">
-        <v>6552142.548506981</v>
+        <v>3732932.889233959</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>43976.58333333334</v>
+        <v>43979.04166666666</v>
       </c>
       <c r="B51">
-        <v>8763.76</v>
+        <v>9209.99</v>
       </c>
       <c r="C51">
-        <v>8835</v>
+        <v>9300</v>
       </c>
       <c r="D51">
-        <v>8731.389999999999</v>
+        <v>9169.59</v>
       </c>
       <c r="E51">
-        <v>8816.16</v>
+        <v>9276.26</v>
       </c>
       <c r="F51">
-        <v>355.22422047</v>
+        <v>457.07767248</v>
       </c>
       <c r="G51">
-        <v>3114777.347179598</v>
+        <v>4219563.41072436</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>43976.625</v>
+        <v>43979.08333333334</v>
       </c>
       <c r="B52">
-        <v>8817.16</v>
+        <v>9274.27</v>
       </c>
       <c r="C52">
-        <v>8860.120000000001</v>
+        <v>9288.18</v>
       </c>
       <c r="D52">
-        <v>8739.09</v>
+        <v>9218.58</v>
       </c>
       <c r="E52">
-        <v>8756.120000000001</v>
+        <v>9218.709999999999</v>
       </c>
       <c r="F52">
-        <v>695.87109116</v>
+        <v>293.73277675</v>
       </c>
       <c r="G52">
-        <v>6136488.970930129</v>
+        <v>2714647.113596719</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>43976.66666666666</v>
+        <v>43979.125</v>
       </c>
       <c r="B53">
-        <v>8755.370000000001</v>
+        <v>9218.58</v>
       </c>
       <c r="C53">
-        <v>8800.1</v>
+        <v>9236.58</v>
       </c>
       <c r="D53">
-        <v>8736.99</v>
+        <v>9164.66</v>
       </c>
       <c r="E53">
-        <v>8776.67</v>
+        <v>9197.209999999999</v>
       </c>
       <c r="F53">
-        <v>366.33040413</v>
+        <v>197.90688776</v>
       </c>
       <c r="G53">
-        <v>3212268.430423386</v>
+        <v>1819744.563745495</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>43976.70833333334</v>
+        <v>43979.16666666666</v>
       </c>
       <c r="B54">
-        <v>8781.219999999999</v>
+        <v>9198.459999999999</v>
       </c>
       <c r="C54">
-        <v>8845</v>
+        <v>9201.51</v>
       </c>
       <c r="D54">
-        <v>8763.48</v>
+        <v>9155.08</v>
       </c>
       <c r="E54">
-        <v>8811.35</v>
+        <v>9164.030000000001</v>
       </c>
       <c r="F54">
-        <v>300.24017283</v>
+        <v>93.20077209</v>
       </c>
       <c r="G54">
-        <v>2647385.984149978</v>
+        <v>855665.4030568863</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>43976.75</v>
+        <v>43979.20833333334</v>
       </c>
       <c r="B55">
-        <v>8812.219999999999</v>
+        <v>9162.639999999999</v>
       </c>
       <c r="C55">
-        <v>8939.01</v>
+        <v>9199.51</v>
       </c>
       <c r="D55">
-        <v>8794.82</v>
+        <v>9133.530000000001</v>
       </c>
       <c r="E55">
-        <v>8896.059999999999</v>
+        <v>9177.52</v>
       </c>
       <c r="F55">
-        <v>351.45856753</v>
+        <v>194.57763612</v>
       </c>
       <c r="G55">
-        <v>3120397.680246443</v>
+        <v>1786050.175764721</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>43976.79166666666</v>
+        <v>43979.25</v>
       </c>
       <c r="B56">
-        <v>8896.059999999999</v>
+        <v>9175.639999999999</v>
       </c>
       <c r="C56">
-        <v>8918.190000000001</v>
+        <v>9179.049999999999</v>
       </c>
       <c r="D56">
-        <v>8858.360000000001</v>
+        <v>9121.01</v>
       </c>
       <c r="E56">
-        <v>8892.110000000001</v>
+        <v>9168.01</v>
       </c>
       <c r="F56">
-        <v>174.70673768</v>
+        <v>100.3282497</v>
       </c>
       <c r="G56">
-        <v>1553281.364913689</v>
+        <v>918772.2872804764</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>43976.83333333334</v>
+        <v>43979.29166666666</v>
       </c>
       <c r="B57">
-        <v>8892.620000000001</v>
+        <v>9161.59</v>
       </c>
       <c r="C57">
-        <v>8984.16</v>
+        <v>9177.33</v>
       </c>
       <c r="D57">
-        <v>8875.190000000001</v>
+        <v>9148</v>
       </c>
       <c r="E57">
-        <v>8937.120000000001</v>
+        <v>9160.57</v>
       </c>
       <c r="F57">
-        <v>266.07921703</v>
+        <v>130.32471173</v>
       </c>
       <c r="G57">
-        <v>2378689.219790337</v>
+        <v>1194292.433298385</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>43976.875</v>
+        <v>43979.33333333334</v>
       </c>
       <c r="B58">
-        <v>8939.85</v>
+        <v>9167.360000000001</v>
       </c>
       <c r="C58">
-        <v>8948.01</v>
+        <v>9184.76</v>
       </c>
       <c r="D58">
-        <v>8903.07</v>
+        <v>9119.84</v>
       </c>
       <c r="E58">
-        <v>8920.85</v>
+        <v>9141.07</v>
       </c>
       <c r="F58">
-        <v>91.74378249999999</v>
+        <v>137.29680482</v>
       </c>
       <c r="G58">
-        <v>818457.6915118389</v>
+        <v>1255496.805683349</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>43976.91666666666</v>
+        <v>43979.375</v>
       </c>
       <c r="B59">
-        <v>8918.33</v>
+        <v>9141.07</v>
       </c>
       <c r="C59">
-        <v>8933.040000000001</v>
+        <v>9188.48</v>
       </c>
       <c r="D59">
-        <v>8866.5</v>
+        <v>9105.790000000001</v>
       </c>
       <c r="E59">
-        <v>8895.84</v>
+        <v>9183.74</v>
       </c>
       <c r="F59">
-        <v>77.34142276999999</v>
+        <v>276.89143055</v>
       </c>
       <c r="G59">
-        <v>688157.5530971048</v>
+        <v>2535640.546534128</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>43976.95833333334</v>
+        <v>43979.41666666666</v>
       </c>
       <c r="B60">
-        <v>8907.32</v>
+        <v>9190.540000000001</v>
       </c>
       <c r="C60">
-        <v>8926.51</v>
+        <v>9205.92</v>
       </c>
       <c r="D60">
-        <v>8868.99</v>
+        <v>9176.469999999999</v>
       </c>
       <c r="E60">
-        <v>8906.299999999999</v>
+        <v>9205.110000000001</v>
       </c>
       <c r="F60">
-        <v>49.39832971</v>
+        <v>284.6845143</v>
       </c>
       <c r="G60">
-        <v>439266.7256764634</v>
+        <v>2615770.526791035</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>43977</v>
+        <v>43979.45833333334</v>
       </c>
       <c r="B61">
-        <v>8905.77</v>
+        <v>9203.379999999999</v>
       </c>
       <c r="C61">
-        <v>8938.42</v>
+        <v>9205.110000000001</v>
       </c>
       <c r="D61">
-        <v>8885.68</v>
+        <v>9160</v>
       </c>
       <c r="E61">
-        <v>8903.559999999999</v>
+        <v>9161.67</v>
       </c>
       <c r="F61">
-        <v>137.95407257</v>
+        <v>139.52371729</v>
       </c>
       <c r="G61">
-        <v>1230817.648003454</v>
+        <v>1281467.586589715</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>43977.04166666666</v>
+        <v>43979.5</v>
       </c>
       <c r="B62">
-        <v>8903.219999999999</v>
+        <v>9161.67</v>
       </c>
       <c r="C62">
-        <v>8923.83</v>
+        <v>9288.110000000001</v>
       </c>
       <c r="D62">
-        <v>8825.059999999999</v>
+        <v>9152.59</v>
       </c>
       <c r="E62">
-        <v>8858.629999999999</v>
+        <v>9265.92</v>
       </c>
       <c r="F62">
-        <v>336.31435084</v>
+        <v>734.65206159</v>
       </c>
       <c r="G62">
-        <v>2980237.197713779</v>
+        <v>6787086.494123177</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>43977.08333333334</v>
+        <v>43979.54166666666</v>
       </c>
       <c r="B63">
-        <v>8863.02</v>
+        <v>9265.92</v>
       </c>
       <c r="C63">
-        <v>8890.15</v>
+        <v>9444.780000000001</v>
       </c>
       <c r="D63">
-        <v>8854.25</v>
+        <v>9250.84</v>
       </c>
       <c r="E63">
-        <v>8886.4</v>
+        <v>9431.83</v>
       </c>
       <c r="F63">
-        <v>106.10291565</v>
+        <v>1268.74106548</v>
       </c>
       <c r="G63">
-        <v>941267.6826576404</v>
+        <v>11869951.05579978</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>43977.125</v>
+        <v>43979.58333333334</v>
       </c>
       <c r="B64">
-        <v>8886.4</v>
+        <v>9432.51</v>
       </c>
       <c r="C64">
-        <v>8917.99</v>
+        <v>9459.469999999999</v>
       </c>
       <c r="D64">
-        <v>8873.959999999999</v>
+        <v>9383.42</v>
       </c>
       <c r="E64">
-        <v>8881.280000000001</v>
+        <v>9412.040000000001</v>
       </c>
       <c r="F64">
-        <v>68.61590563</v>
+        <v>776.89939051</v>
       </c>
       <c r="G64">
-        <v>610563.9375236076</v>
+        <v>7309019.131161314</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>43977.16666666666</v>
+        <v>43979.625</v>
       </c>
       <c r="B65">
-        <v>8875.82</v>
+        <v>9414.1</v>
       </c>
       <c r="C65">
-        <v>8931.940000000001</v>
+        <v>9509.610000000001</v>
       </c>
       <c r="D65">
-        <v>8868.59</v>
+        <v>9414.1</v>
       </c>
       <c r="E65">
-        <v>8901.57</v>
+        <v>9471.33</v>
       </c>
       <c r="F65">
-        <v>136.89695968</v>
+        <v>1178.98535024</v>
       </c>
       <c r="G65">
-        <v>1218921.106482446</v>
+        <v>11159329.04479762</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>43977.20833333334</v>
+        <v>43979.66666666666</v>
       </c>
       <c r="B66">
-        <v>8895.879999999999</v>
+        <v>9476.030000000001</v>
       </c>
       <c r="C66">
-        <v>8922.35</v>
+        <v>9523.5</v>
       </c>
       <c r="D66">
-        <v>8872.01</v>
+        <v>9444.030000000001</v>
       </c>
       <c r="E66">
-        <v>8901.34</v>
+        <v>9500.700000000001</v>
       </c>
       <c r="F66">
-        <v>186.97339429</v>
+        <v>810.76343388</v>
       </c>
       <c r="G66">
-        <v>1664927.273809442</v>
+        <v>7688666.41557478</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>43977.25</v>
+        <v>43979.70833333334</v>
       </c>
       <c r="B67">
-        <v>8903</v>
+        <v>9507.42</v>
       </c>
       <c r="C67">
-        <v>8939.440000000001</v>
+        <v>9539.889999999999</v>
       </c>
       <c r="D67">
-        <v>8890.49</v>
+        <v>9439.870000000001</v>
       </c>
       <c r="E67">
-        <v>8930.77</v>
+        <v>9454.09</v>
       </c>
       <c r="F67">
-        <v>149.43675869</v>
+        <v>661.22943276</v>
       </c>
       <c r="G67">
-        <v>1332473.485908578</v>
+        <v>6270798.190822335</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>43977.29166666666</v>
+        <v>43979.75</v>
       </c>
       <c r="B68">
-        <v>8938.42</v>
+        <v>9452.719999999999</v>
       </c>
       <c r="C68">
-        <v>8938.42</v>
+        <v>9479.110000000001</v>
       </c>
       <c r="D68">
-        <v>8880.27</v>
+        <v>9446.889999999999</v>
       </c>
       <c r="E68">
-        <v>8888</v>
+        <v>9470</v>
       </c>
       <c r="F68">
-        <v>154.16850037</v>
+        <v>371.1826961</v>
       </c>
       <c r="G68">
-        <v>1372884.0717479</v>
+        <v>3514392.839964184</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>43977.33333333334</v>
+        <v>43979.79166666666</v>
       </c>
       <c r="B69">
-        <v>8885</v>
+        <v>9469.73</v>
       </c>
       <c r="C69">
-        <v>8965.26</v>
+        <v>9485.26</v>
       </c>
       <c r="D69">
-        <v>8858.360000000001</v>
+        <v>9428.549999999999</v>
       </c>
       <c r="E69">
-        <v>8959.139999999999</v>
+        <v>9428.549999999999</v>
       </c>
       <c r="F69">
-        <v>308.1695339</v>
+        <v>627.04633928</v>
       </c>
       <c r="G69">
-        <v>2749414.511913874</v>
+        <v>5930520.701357246</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>43977.375</v>
+        <v>43979.83333333334</v>
       </c>
       <c r="B70">
-        <v>8953.879999999999</v>
+        <v>9428.559999999999</v>
       </c>
       <c r="C70">
-        <v>9012</v>
+        <v>9484.629999999999</v>
       </c>
       <c r="D70">
-        <v>8945.450000000001</v>
+        <v>9407.18</v>
       </c>
       <c r="E70">
-        <v>8965.27</v>
+        <v>9456.059999999999</v>
       </c>
       <c r="F70">
-        <v>231.22681399</v>
+        <v>331.81215773</v>
       </c>
       <c r="G70">
-        <v>2077774.719792085</v>
+        <v>3135206.656533598</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>43977.41666666666</v>
+        <v>43979.875</v>
       </c>
       <c r="B71">
-        <v>8961.129999999999</v>
+        <v>9458.41</v>
       </c>
       <c r="C71">
-        <v>8995.530000000001</v>
+        <v>9465.620000000001</v>
       </c>
       <c r="D71">
-        <v>8868.99</v>
+        <v>9422</v>
       </c>
       <c r="E71">
-        <v>8891.25</v>
+        <v>9446.049999999999</v>
       </c>
       <c r="F71">
-        <v>335.05486575</v>
+        <v>572.0450551500001</v>
       </c>
       <c r="G71">
-        <v>2990993.570852858</v>
+        <v>5397419.106685855</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>43977.45833333334</v>
+        <v>43979.91666666666</v>
       </c>
       <c r="B72">
-        <v>8887</v>
+        <v>9446.65</v>
       </c>
       <c r="C72">
-        <v>8898.219999999999</v>
+        <v>9487.59</v>
       </c>
       <c r="D72">
-        <v>8831.219999999999</v>
+        <v>9414</v>
       </c>
       <c r="E72">
-        <v>8865.450000000001</v>
+        <v>9433.940000000001</v>
       </c>
       <c r="F72">
-        <v>391.98669042</v>
+        <v>436.51533203</v>
       </c>
       <c r="G72">
-        <v>3474255.650459705</v>
+        <v>4119068.771520081</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>43977.5</v>
+        <v>43979.95833333334</v>
       </c>
       <c r="B73">
-        <v>8862.120000000001</v>
+        <v>9435.48</v>
       </c>
       <c r="C73">
-        <v>8884.959999999999</v>
+        <v>9560.49</v>
       </c>
       <c r="D73">
-        <v>8837.950000000001</v>
+        <v>9435.370000000001</v>
       </c>
       <c r="E73">
-        <v>8865</v>
+        <v>9485.98</v>
       </c>
       <c r="F73">
-        <v>101.99786884</v>
+        <v>495.30765459</v>
       </c>
       <c r="G73">
-        <v>904193.2152384114</v>
+        <v>4704180.468287521</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>43977.54166666666</v>
+        <v>43980</v>
       </c>
       <c r="B74">
-        <v>8860.25</v>
+        <v>9489.48</v>
       </c>
       <c r="C74">
-        <v>8911.65</v>
+        <v>9625.01</v>
       </c>
       <c r="D74">
-        <v>8784.49</v>
+        <v>9485.280000000001</v>
       </c>
       <c r="E74">
-        <v>8810.889999999999</v>
+        <v>9577.379999999999</v>
       </c>
       <c r="F74">
-        <v>488.3082429</v>
+        <v>942.14602747</v>
       </c>
       <c r="G74">
-        <v>4326615.610436844</v>
+        <v>9008933.275780199</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>43977.58333333334</v>
+        <v>43980.04166666666</v>
       </c>
       <c r="B75">
-        <v>8810</v>
+        <v>9581.49</v>
       </c>
       <c r="C75">
-        <v>8870.58</v>
+        <v>9610</v>
       </c>
       <c r="D75">
-        <v>8784.09</v>
+        <v>9481.16</v>
       </c>
       <c r="E75">
-        <v>8808.99</v>
+        <v>9514.58</v>
       </c>
       <c r="F75">
-        <v>321.29315853</v>
+        <v>1106.41417098</v>
       </c>
       <c r="G75">
-        <v>2835666.094182935</v>
+        <v>10555378.28218921</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>43977.625</v>
+        <v>43980.08333333334</v>
       </c>
       <c r="B76">
-        <v>8806</v>
+        <v>9513.58</v>
       </c>
       <c r="C76">
-        <v>8862.870000000001</v>
+        <v>9535.15</v>
       </c>
       <c r="D76">
-        <v>8794.82</v>
+        <v>9463.200000000001</v>
       </c>
       <c r="E76">
-        <v>8817.6</v>
+        <v>9508.299999999999</v>
       </c>
       <c r="F76">
-        <v>251.32684919</v>
+        <v>198.79319088</v>
       </c>
       <c r="G76">
-        <v>2218554.122004766</v>
+        <v>1887493.432069337</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>43977.66666666666</v>
+        <v>43980.125</v>
       </c>
       <c r="B77">
-        <v>8817.459999999999</v>
+        <v>9506.75</v>
       </c>
       <c r="C77">
-        <v>8836.76</v>
+        <v>9536.440000000001</v>
       </c>
       <c r="D77">
-        <v>8700</v>
+        <v>9490.26</v>
       </c>
       <c r="E77">
-        <v>8726.1</v>
+        <v>9503.26</v>
       </c>
       <c r="F77">
-        <v>656.40819877</v>
+        <v>92.13012711</v>
       </c>
       <c r="G77">
-        <v>5750781.036424492</v>
+        <v>876236.0972146192</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>43977.70833333334</v>
+        <v>43980.16666666666</v>
       </c>
       <c r="B78">
-        <v>8716.049999999999</v>
+        <v>9502.24</v>
       </c>
       <c r="C78">
-        <v>8806.309999999999</v>
+        <v>9530.9</v>
       </c>
       <c r="D78">
-        <v>8690</v>
+        <v>9490</v>
       </c>
       <c r="E78">
-        <v>8783.299999999999</v>
+        <v>9518.5</v>
       </c>
       <c r="F78">
-        <v>305.63844551</v>
+        <v>150.16127014</v>
       </c>
       <c r="G78">
-        <v>2677275.251715945</v>
+        <v>1427101.565446324</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>43977.75</v>
+        <v>43980.20833333334</v>
       </c>
       <c r="B79">
-        <v>8783.33</v>
+        <v>9512.1</v>
       </c>
       <c r="C79">
-        <v>8819</v>
+        <v>9534.639999999999</v>
       </c>
       <c r="D79">
-        <v>8776.790000000001</v>
+        <v>9490</v>
       </c>
       <c r="E79">
-        <v>8810</v>
+        <v>9491.01</v>
       </c>
       <c r="F79">
-        <v>197.146627</v>
+        <v>105.42306364</v>
       </c>
       <c r="G79">
-        <v>1735088.187564015</v>
+        <v>1002431.490250746</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>43977.79166666666</v>
+        <v>43980.25</v>
       </c>
       <c r="B80">
-        <v>8815</v>
+        <v>9491.01</v>
       </c>
       <c r="C80">
-        <v>8822.450000000001</v>
+        <v>9530.9</v>
       </c>
       <c r="D80">
-        <v>8791.09</v>
+        <v>9468.219999999999</v>
       </c>
       <c r="E80">
-        <v>8809</v>
+        <v>9518.709999999999</v>
       </c>
       <c r="F80">
-        <v>336.18919222</v>
+        <v>118.5416208</v>
       </c>
       <c r="G80">
-        <v>2960316.638754431</v>
+        <v>1126602.922699783</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>43977.83333333334</v>
+        <v>43980.29166666666</v>
       </c>
       <c r="B81">
-        <v>8807.07</v>
+        <v>9511.66</v>
       </c>
       <c r="C81">
-        <v>8808.959999999999</v>
+        <v>9549.83</v>
       </c>
       <c r="D81">
-        <v>8756.450000000001</v>
+        <v>9501</v>
       </c>
       <c r="E81">
-        <v>8790.450000000001</v>
+        <v>9517.379999999999</v>
       </c>
       <c r="F81">
-        <v>346.14890895</v>
+        <v>175.91505342</v>
       </c>
       <c r="G81">
-        <v>3038685.966867909</v>
+        <v>1675752.633038762</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>43977.875</v>
+        <v>43980.33333333334</v>
       </c>
       <c r="B82">
-        <v>8796.1</v>
+        <v>9506.26</v>
       </c>
       <c r="C82">
-        <v>8883.209999999999</v>
+        <v>9536.620000000001</v>
       </c>
       <c r="D82">
-        <v>8788.5</v>
+        <v>9501.5</v>
       </c>
       <c r="E82">
-        <v>8864.1</v>
+        <v>9518.879999999999</v>
       </c>
       <c r="F82">
-        <v>263.21818121</v>
+        <v>86.7833758</v>
       </c>
       <c r="G82">
-        <v>2327412.041462576</v>
+        <v>826262.3911507326</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>43977.91666666666</v>
+        <v>43980.375</v>
       </c>
       <c r="B83">
-        <v>8871.559999999999</v>
+        <v>9517.219999999999</v>
       </c>
       <c r="C83">
-        <v>8879.639999999999</v>
+        <v>9592</v>
       </c>
       <c r="D83">
-        <v>8830.940000000001</v>
+        <v>9420</v>
       </c>
       <c r="E83">
-        <v>8843.48</v>
+        <v>9449.51</v>
       </c>
       <c r="F83">
-        <v>60.90567841</v>
+        <v>631.96619014</v>
       </c>
       <c r="G83">
-        <v>539176.5464119908</v>
+        <v>5997785.930220319</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>43977.95833333334</v>
+        <v>43980.41666666666</v>
       </c>
       <c r="B84">
-        <v>8850.209999999999</v>
+        <v>9451</v>
       </c>
       <c r="C84">
-        <v>8850.23</v>
+        <v>9477.030000000001</v>
       </c>
       <c r="D84">
-        <v>8801.059999999999</v>
+        <v>9434.209999999999</v>
       </c>
       <c r="E84">
-        <v>8829.200000000001</v>
+        <v>9442.93</v>
       </c>
       <c r="F84">
-        <v>132.78206022</v>
+        <v>182.60444828</v>
       </c>
       <c r="G84">
-        <v>1172138.998757242</v>
+        <v>1726701.256515234</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>43978</v>
+        <v>43980.45833333334</v>
       </c>
       <c r="B85">
-        <v>8829.299999999999</v>
+        <v>9440.790000000001</v>
       </c>
       <c r="C85">
-        <v>8858.360000000001</v>
+        <v>9469.25</v>
       </c>
       <c r="D85">
-        <v>8810.9</v>
+        <v>9355</v>
       </c>
       <c r="E85">
-        <v>8840.91</v>
+        <v>9364.030000000001</v>
       </c>
       <c r="F85">
-        <v>54.6725988</v>
+        <v>644.06733141</v>
       </c>
       <c r="G85">
-        <v>483311.4644272343</v>
+        <v>6061927.213734047</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>43978.04166666666</v>
+        <v>43980.5</v>
       </c>
       <c r="B86">
-        <v>8835.790000000001</v>
+        <v>9358.059999999999</v>
       </c>
       <c r="C86">
-        <v>8895.629999999999</v>
+        <v>9416.190000000001</v>
       </c>
       <c r="D86">
-        <v>8831.23</v>
+        <v>9332.65</v>
       </c>
       <c r="E86">
-        <v>8882.049999999999</v>
+        <v>9402.870000000001</v>
       </c>
       <c r="F86">
-        <v>211.81060143</v>
+        <v>483.20211998</v>
       </c>
       <c r="G86">
-        <v>1877808.293864683</v>
+        <v>4534938.424906667</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>43978.08333333334</v>
+        <v>43980.54166666666</v>
       </c>
       <c r="B87">
-        <v>8882.209999999999</v>
+        <v>9396.049999999999</v>
       </c>
       <c r="C87">
-        <v>8890</v>
+        <v>9451.200000000001</v>
       </c>
       <c r="D87">
-        <v>8846.35</v>
+        <v>9368.700000000001</v>
       </c>
       <c r="E87">
-        <v>8849.690000000001</v>
+        <v>9397.01</v>
       </c>
       <c r="F87">
-        <v>79.63900129</v>
+        <v>311.61098916</v>
       </c>
       <c r="G87">
-        <v>705868.8564920035</v>
+        <v>2934159.75936806</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>43978.125</v>
+        <v>43980.58333333334</v>
       </c>
       <c r="B88">
-        <v>8856.09</v>
+        <v>9395</v>
       </c>
       <c r="C88">
-        <v>8876.969999999999</v>
+        <v>9443.629999999999</v>
       </c>
       <c r="D88">
-        <v>8810.99</v>
+        <v>9384.059999999999</v>
       </c>
       <c r="E88">
-        <v>8817.370000000001</v>
+        <v>9431.790000000001</v>
       </c>
       <c r="F88">
-        <v>100.35184748</v>
+        <v>453.65384716</v>
       </c>
       <c r="G88">
-        <v>887603.2368385119</v>
+        <v>4272206.339187992</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>43978.16666666666</v>
+        <v>43980.625</v>
       </c>
       <c r="B89">
-        <v>8815.17</v>
+        <v>9431.68</v>
       </c>
       <c r="C89">
-        <v>8851.6</v>
+        <v>9478</v>
       </c>
       <c r="D89">
-        <v>8815.17</v>
+        <v>9420.15</v>
       </c>
       <c r="E89">
-        <v>8827.280000000001</v>
+        <v>9441.65</v>
       </c>
       <c r="F89">
-        <v>37.15653241</v>
+        <v>529.08486425</v>
       </c>
       <c r="G89">
-        <v>328462.4109807009</v>
+        <v>4994949.219576238</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>43978.20833333334</v>
+        <v>43980.66666666666</v>
       </c>
       <c r="B90">
-        <v>8832.32</v>
+        <v>9446.76</v>
       </c>
       <c r="C90">
-        <v>8858.360000000001</v>
+        <v>9450.98</v>
       </c>
       <c r="D90">
-        <v>8824.93</v>
+        <v>9330</v>
       </c>
       <c r="E90">
-        <v>8858.360000000001</v>
+        <v>9404.940000000001</v>
       </c>
       <c r="F90">
-        <v>44.3544366</v>
+        <v>392.44715642</v>
       </c>
       <c r="G90">
-        <v>392113.7790080482</v>
+        <v>3683443.511115749</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>43978.25</v>
+        <v>43980.70833333334</v>
       </c>
       <c r="B91">
-        <v>8858.360000000001</v>
+        <v>9402.610000000001</v>
       </c>
       <c r="C91">
-        <v>8878.01</v>
+        <v>9448.67</v>
       </c>
       <c r="D91">
-        <v>8850.6</v>
+        <v>9392.059999999999</v>
       </c>
       <c r="E91">
-        <v>8870.33</v>
+        <v>9428.5</v>
       </c>
       <c r="F91">
-        <v>93.93586257</v>
+        <v>206.91062877</v>
       </c>
       <c r="G91">
-        <v>832759.6483045485</v>
+        <v>1950368.420523182</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>43978.29166666666</v>
+        <v>43980.75</v>
       </c>
       <c r="B92">
-        <v>8874.309999999999</v>
+        <v>9428.32</v>
       </c>
       <c r="C92">
-        <v>8884.959999999999</v>
+        <v>9451.200000000001</v>
       </c>
       <c r="D92">
-        <v>8830.969999999999</v>
+        <v>9411.030000000001</v>
       </c>
       <c r="E92">
-        <v>8846.389999999999</v>
+        <v>9425.139999999999</v>
       </c>
       <c r="F92">
-        <v>80.73453404999999</v>
+        <v>309.17155357</v>
       </c>
       <c r="G92">
-        <v>714251.4207730885</v>
+        <v>2915318.277971054</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>43978.33333333334</v>
+        <v>43980.79166666666</v>
       </c>
       <c r="B93">
-        <v>8848.559999999999</v>
+        <v>9416.41</v>
       </c>
       <c r="C93">
-        <v>8860</v>
+        <v>9439.860000000001</v>
       </c>
       <c r="D93">
-        <v>8831.83</v>
+        <v>9394.07</v>
       </c>
       <c r="E93">
-        <v>8844.85</v>
+        <v>9426.809999999999</v>
       </c>
       <c r="F93">
-        <v>83.56991198999999</v>
+        <v>304.6277488</v>
       </c>
       <c r="G93">
-        <v>739284.185158412</v>
+        <v>2867453.244917733</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>43978.375</v>
+        <v>43980.83333333334</v>
       </c>
       <c r="B94">
-        <v>8843.84</v>
+        <v>9427.780000000001</v>
       </c>
       <c r="C94">
-        <v>8959.889999999999</v>
+        <v>9431.48</v>
       </c>
       <c r="D94">
-        <v>8843.84</v>
+        <v>9391.65</v>
       </c>
       <c r="E94">
-        <v>8928.02</v>
+        <v>9403.99</v>
       </c>
       <c r="F94">
-        <v>449.40274337</v>
+        <v>89.54856087</v>
       </c>
       <c r="G94">
-        <v>4009706.837861082</v>
+        <v>842782.4127151452</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>43978.41666666666</v>
+        <v>43980.875</v>
       </c>
       <c r="B95">
-        <v>8934.99</v>
+        <v>9395.26</v>
       </c>
       <c r="C95">
-        <v>8941.33</v>
+        <v>9428.549999999999</v>
       </c>
       <c r="D95">
-        <v>8902.879999999999</v>
+        <v>9384.9</v>
       </c>
       <c r="E95">
-        <v>8929.629999999999</v>
+        <v>9421.34</v>
       </c>
       <c r="F95">
-        <v>153.90802016</v>
+        <v>85.28378759</v>
       </c>
       <c r="G95">
-        <v>1373120.417939012</v>
+        <v>803159.875003532</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>43978.45833333334</v>
+        <v>43980.91666666666</v>
       </c>
       <c r="B96">
-        <v>8924.98</v>
+        <v>9419.370000000001</v>
       </c>
       <c r="C96">
-        <v>9206.99</v>
+        <v>9422.290000000001</v>
       </c>
       <c r="D96">
-        <v>8922.35</v>
+        <v>9372.17</v>
       </c>
       <c r="E96">
-        <v>9128.799999999999</v>
+        <v>9394.860000000001</v>
       </c>
       <c r="F96">
-        <v>1075.30634852</v>
+        <v>94.56412735000001</v>
       </c>
       <c r="G96">
-        <v>9781503.391534545</v>
+        <v>887966.1235702117</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>43978.5</v>
+        <v>43980.95833333334</v>
       </c>
       <c r="B97">
-        <v>9124.18</v>
+        <v>9392.129999999999</v>
       </c>
       <c r="C97">
-        <v>9162.540000000001</v>
+        <v>9436.58</v>
       </c>
       <c r="D97">
-        <v>9111.389999999999</v>
+        <v>9369.5</v>
       </c>
       <c r="E97">
-        <v>9155.469999999999</v>
+        <v>9427.440000000001</v>
       </c>
       <c r="F97">
-        <v>406.51402117</v>
+        <v>148.81415416</v>
       </c>
       <c r="G97">
-        <v>3713451.119354243</v>
+        <v>1401140.554409149</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>43978.54166666666</v>
+        <v>43981</v>
       </c>
       <c r="B98">
-        <v>9148.35</v>
+        <v>9429.950000000001</v>
       </c>
       <c r="C98">
-        <v>9197.23</v>
+        <v>9454.049999999999</v>
       </c>
       <c r="D98">
-        <v>9130.4</v>
+        <v>9412.33</v>
       </c>
       <c r="E98">
-        <v>9144.450000000001</v>
+        <v>9421.040000000001</v>
       </c>
       <c r="F98">
-        <v>547.51485322</v>
+        <v>324.69433897</v>
       </c>
       <c r="G98">
-        <v>5016920.617983627</v>
+        <v>3066575.706975823</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>43978.58333333334</v>
+        <v>43981.04166666666</v>
       </c>
       <c r="B99">
-        <v>9151.74</v>
+        <v>9428.52</v>
       </c>
       <c r="C99">
-        <v>9188.360000000001</v>
+        <v>9428.52</v>
       </c>
       <c r="D99">
-        <v>9128.049999999999</v>
+        <v>9355.32</v>
       </c>
       <c r="E99">
-        <v>9146.43</v>
+        <v>9371.280000000001</v>
       </c>
       <c r="F99">
-        <v>513.75000744</v>
+        <v>169.097625</v>
       </c>
       <c r="G99">
-        <v>4702812.332419178</v>
+        <v>1587241.385764191</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>43978.625</v>
+        <v>43981.08333333334</v>
       </c>
       <c r="B100">
-        <v>9148.98</v>
+        <v>9364.51</v>
       </c>
       <c r="C100">
-        <v>9177.9</v>
+        <v>9396.58</v>
       </c>
       <c r="D100">
-        <v>9119.91</v>
+        <v>9344.1</v>
       </c>
       <c r="E100">
-        <v>9155.940000000001</v>
+        <v>9378.190000000001</v>
       </c>
       <c r="F100">
-        <v>239.96108001</v>
+        <v>263.10265415</v>
       </c>
       <c r="G100">
-        <v>2194765.969304668</v>
+        <v>2463995.368023289</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>43978.66666666666</v>
+        <v>43981.125</v>
       </c>
       <c r="B101">
-        <v>9156.639999999999</v>
+        <v>9362.4</v>
       </c>
       <c r="C101">
-        <v>9230.209999999999</v>
+        <v>9390.4</v>
       </c>
       <c r="D101">
-        <v>9118.370000000001</v>
+        <v>9361</v>
       </c>
       <c r="E101">
-        <v>9149.92</v>
+        <v>9385.530000000001</v>
       </c>
       <c r="F101">
-        <v>653.58087621</v>
+        <v>42.86967329</v>
       </c>
       <c r="G101">
-        <v>5988543.512578793</v>
+        <v>401908.1835929669</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>43978.70833333334</v>
+        <v>43981.16666666666</v>
       </c>
       <c r="B102">
-        <v>9142.620000000001</v>
+        <v>9379.27</v>
       </c>
       <c r="C102">
-        <v>9193.99</v>
+        <v>9393.190000000001</v>
       </c>
       <c r="D102">
-        <v>9138</v>
+        <v>9326.280000000001</v>
       </c>
       <c r="E102">
-        <v>9171.25</v>
+        <v>9387.959999999999</v>
       </c>
       <c r="F102">
-        <v>268.94565871</v>
+        <v>110.89774846</v>
       </c>
       <c r="G102">
-        <v>2467171.439485317</v>
+        <v>1037332.397268442</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>43978.75</v>
+        <v>43981.20833333334</v>
       </c>
       <c r="B103">
-        <v>9168.620000000001</v>
+        <v>9394.68</v>
       </c>
       <c r="C103">
-        <v>9221.610000000001</v>
+        <v>9560.139999999999</v>
       </c>
       <c r="D103">
-        <v>9162.26</v>
+        <v>9386.870000000001</v>
       </c>
       <c r="E103">
-        <v>9190.9</v>
+        <v>9507.07</v>
       </c>
       <c r="F103">
-        <v>225.80270071</v>
+        <v>362.26089292</v>
       </c>
       <c r="G103">
-        <v>2075986.713444101</v>
+        <v>3435084.66168379</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>43978.79166666666</v>
+        <v>43981.25</v>
       </c>
       <c r="B104">
-        <v>9194.610000000001</v>
+        <v>9506.58</v>
       </c>
       <c r="C104">
-        <v>9203</v>
+        <v>9560.07</v>
       </c>
       <c r="D104">
-        <v>9160.879999999999</v>
+        <v>9497.49</v>
       </c>
       <c r="E104">
-        <v>9175</v>
+        <v>9553</v>
       </c>
       <c r="F104">
-        <v>157.73850857</v>
+        <v>143.94240976</v>
       </c>
       <c r="G104">
-        <v>1447579.997335442</v>
+        <v>1371803.650738508</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>43978.83333333334</v>
+        <v>43981.29166666666</v>
       </c>
       <c r="B105">
-        <v>9175.01</v>
+        <v>9553</v>
       </c>
       <c r="C105">
-        <v>9180</v>
+        <v>9597.040000000001</v>
       </c>
       <c r="D105">
-        <v>9138</v>
+        <v>9531.5</v>
       </c>
       <c r="E105">
-        <v>9159.690000000001</v>
+        <v>9537.67</v>
       </c>
       <c r="F105">
-        <v>233.6649647</v>
+        <v>364.29885237</v>
       </c>
       <c r="G105">
-        <v>2139387.677157564</v>
+        <v>3483937.042873733</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>43978.875</v>
+        <v>43981.33333333334</v>
       </c>
       <c r="B106">
-        <v>9160.209999999999</v>
+        <v>9545.299999999999</v>
       </c>
       <c r="C106">
-        <v>9176.08</v>
+        <v>9562.84</v>
       </c>
       <c r="D106">
-        <v>9154.379999999999</v>
+        <v>9512.639999999999</v>
       </c>
       <c r="E106">
-        <v>9164.49</v>
+        <v>9530.370000000001</v>
       </c>
       <c r="F106">
-        <v>256.89565512</v>
+        <v>233.60632857</v>
       </c>
       <c r="G106">
-        <v>2354862.325841961</v>
+        <v>2229083.284949804</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>43978.91666666666</v>
+        <v>43981.375</v>
       </c>
       <c r="B107">
-        <v>9164.51</v>
+        <v>9523.76</v>
       </c>
       <c r="C107">
-        <v>9165.17</v>
+        <v>9558.389999999999</v>
       </c>
       <c r="D107">
-        <v>9062.26</v>
+        <v>9523.76</v>
       </c>
       <c r="E107">
-        <v>9063.139999999999</v>
+        <v>9526.48</v>
       </c>
       <c r="F107">
-        <v>286.63903235</v>
+        <v>113.97029546</v>
       </c>
       <c r="G107">
-        <v>2610077.644030945</v>
+        <v>1087528.923604185</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>43978.95833333334</v>
+        <v>43981.41666666666</v>
       </c>
       <c r="B108">
-        <v>9062.780000000001</v>
+        <v>9532.76</v>
       </c>
       <c r="C108">
-        <v>9126.34</v>
+        <v>9537.290000000001</v>
       </c>
       <c r="D108">
-        <v>9051.73</v>
+        <v>9462.549999999999</v>
       </c>
       <c r="E108">
-        <v>9104.07</v>
+        <v>9493.42</v>
       </c>
       <c r="F108">
-        <v>258.78784448</v>
+        <v>195.86517837</v>
       </c>
       <c r="G108">
-        <v>2355095.271721594</v>
+        <v>1859801.984376701</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>43979</v>
+        <v>43981.45833333334</v>
       </c>
       <c r="B109">
-        <v>9104.07</v>
+        <v>9497.9</v>
       </c>
       <c r="C109">
-        <v>9210</v>
+        <v>9537.16</v>
       </c>
       <c r="D109">
-        <v>9089.58</v>
+        <v>9487.360000000001</v>
       </c>
       <c r="E109">
-        <v>9210</v>
+        <v>9520.049999999999</v>
       </c>
       <c r="F109">
-        <v>407.50911738</v>
+        <v>141.14758736</v>
       </c>
       <c r="G109">
-        <v>3732932.889233959</v>
+        <v>1343169.260096766</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>43979.04166666666</v>
+        <v>43981.5</v>
       </c>
       <c r="B110">
-        <v>9209.99</v>
+        <v>9521.790000000001</v>
       </c>
       <c r="C110">
-        <v>9300</v>
+        <v>9580</v>
       </c>
       <c r="D110">
-        <v>9169.59</v>
+        <v>9520.280000000001</v>
       </c>
       <c r="E110">
-        <v>9276.26</v>
+        <v>9552.690000000001</v>
       </c>
       <c r="F110">
-        <v>457.07767248</v>
+        <v>285.31885655</v>
       </c>
       <c r="G110">
-        <v>4219563.41072436</v>
+        <v>2726678.468631151</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>43979.08333333334</v>
+        <v>43981.54166666666</v>
       </c>
       <c r="B111">
-        <v>9274.27</v>
+        <v>9550</v>
       </c>
       <c r="C111">
-        <v>9288.18</v>
+        <v>9557.860000000001</v>
       </c>
       <c r="D111">
-        <v>9218.58</v>
+        <v>9506.85</v>
       </c>
       <c r="E111">
-        <v>9218.709999999999</v>
+        <v>9544.6</v>
       </c>
       <c r="F111">
-        <v>293.73277675</v>
+        <v>140.18963267</v>
       </c>
       <c r="G111">
-        <v>2714647.113596719</v>
+        <v>1335792.366931253</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>43979.125</v>
+        <v>43981.58333333334</v>
       </c>
       <c r="B112">
-        <v>9218.58</v>
+        <v>9548.309999999999</v>
       </c>
       <c r="C112">
-        <v>9236.58</v>
+        <v>9573.25</v>
       </c>
       <c r="D112">
-        <v>9164.66</v>
+        <v>9519.9</v>
       </c>
       <c r="E112">
-        <v>9197.209999999999</v>
+        <v>9560.860000000001</v>
       </c>
       <c r="F112">
-        <v>197.90688776</v>
+        <v>118.82105732</v>
       </c>
       <c r="G112">
-        <v>1819744.563745495</v>
+        <v>1133906.4912678</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>43979.16666666666</v>
+        <v>43981.625</v>
       </c>
       <c r="B113">
-        <v>9198.459999999999</v>
+        <v>9565.26</v>
       </c>
       <c r="C113">
-        <v>9201.51</v>
+        <v>9576.75</v>
       </c>
       <c r="D113">
-        <v>9155.08</v>
+        <v>9537.98</v>
       </c>
       <c r="E113">
-        <v>9164.030000000001</v>
+        <v>9542.34</v>
       </c>
       <c r="F113">
-        <v>93.20077209</v>
+        <v>148.45200231</v>
       </c>
       <c r="G113">
-        <v>855665.4030568863</v>
+        <v>1418770.802567262</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>43979.20833333334</v>
+        <v>43981.66666666666</v>
       </c>
       <c r="B114">
-        <v>9162.639999999999</v>
+        <v>9551.52</v>
       </c>
       <c r="C114">
-        <v>9199.51</v>
+        <v>9552</v>
       </c>
       <c r="D114">
-        <v>9133.530000000001</v>
+        <v>9496.66</v>
       </c>
       <c r="E114">
-        <v>9177.52</v>
+        <v>9541.309999999999</v>
       </c>
       <c r="F114">
-        <v>194.57763612</v>
+        <v>87.24013701</v>
       </c>
       <c r="G114">
-        <v>1786050.175764721</v>
+        <v>830475.6602122907</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>43979.25</v>
+        <v>43981.70833333334</v>
       </c>
       <c r="B115">
-        <v>9175.639999999999</v>
+        <v>9541.469999999999</v>
       </c>
       <c r="C115">
-        <v>9179.049999999999</v>
+        <v>9555.58</v>
       </c>
       <c r="D115">
-        <v>9121.01</v>
+        <v>9513.58</v>
       </c>
       <c r="E115">
-        <v>9168.01</v>
+        <v>9544.85</v>
       </c>
       <c r="F115">
-        <v>100.3282497</v>
+        <v>105.07252539</v>
       </c>
       <c r="G115">
-        <v>918772.2872804764</v>
+        <v>1002388.340202019</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>43979.29166666666</v>
+        <v>43981.75</v>
       </c>
       <c r="B116">
-        <v>9161.59</v>
+        <v>9545.280000000001</v>
       </c>
       <c r="C116">
-        <v>9177.33</v>
+        <v>9548.07</v>
       </c>
       <c r="D116">
-        <v>9148</v>
+        <v>9518</v>
       </c>
       <c r="E116">
-        <v>9160.57</v>
+        <v>9519.5</v>
       </c>
       <c r="F116">
-        <v>130.32471173</v>
+        <v>90.719444</v>
       </c>
       <c r="G116">
-        <v>1194292.433298385</v>
+        <v>864675.7496898854</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>43979.33333333334</v>
+        <v>43981.79166666666</v>
       </c>
       <c r="B117">
-        <v>9167.360000000001</v>
+        <v>9521.309999999999</v>
       </c>
       <c r="C117">
-        <v>9184.76</v>
+        <v>9549.200000000001</v>
       </c>
       <c r="D117">
-        <v>9119.84</v>
+        <v>9517.620000000001</v>
       </c>
       <c r="E117">
-        <v>9141.07</v>
+        <v>9528.07</v>
       </c>
       <c r="F117">
-        <v>137.29680482</v>
+        <v>79.02541187999999</v>
       </c>
       <c r="G117">
-        <v>1255496.805683349</v>
+        <v>753526.0430554621</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>43979.375</v>
+        <v>43981.83333333334</v>
       </c>
       <c r="B118">
-        <v>9141.07</v>
+        <v>9534.809999999999</v>
       </c>
       <c r="C118">
-        <v>9188.48</v>
+        <v>9548.07</v>
       </c>
       <c r="D118">
-        <v>9105.790000000001</v>
+        <v>9518.01</v>
       </c>
       <c r="E118">
-        <v>9183.74</v>
+        <v>9542.48</v>
       </c>
       <c r="F118">
-        <v>276.89143055</v>
+        <v>34.18178314</v>
       </c>
       <c r="G118">
-        <v>2535640.546534128</v>
+        <v>325944.9538033666</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>43979.41666666666</v>
+        <v>43981.875</v>
       </c>
       <c r="B119">
-        <v>9190.540000000001</v>
+        <v>9542.09</v>
       </c>
       <c r="C119">
-        <v>9205.92</v>
+        <v>9544.76</v>
       </c>
       <c r="D119">
-        <v>9176.469999999999</v>
+        <v>9392.57</v>
       </c>
       <c r="E119">
-        <v>9205.110000000001</v>
+        <v>9431.15</v>
       </c>
       <c r="F119">
-        <v>284.6845143</v>
+        <v>754.11434839</v>
       </c>
       <c r="G119">
-        <v>2615770.526791035</v>
+        <v>7117340.519041757</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>43979.45833333334</v>
+        <v>43981.91666666666</v>
       </c>
       <c r="B120">
-        <v>9203.379999999999</v>
+        <v>9434.379999999999</v>
       </c>
       <c r="C120">
-        <v>9205.110000000001</v>
+        <v>9495.16</v>
       </c>
       <c r="D120">
-        <v>9160</v>
+        <v>9430.450000000001</v>
       </c>
       <c r="E120">
-        <v>9161.67</v>
+        <v>9485.799999999999</v>
       </c>
       <c r="F120">
-        <v>139.52371729</v>
+        <v>553.35971178</v>
       </c>
       <c r="G120">
-        <v>1281467.586589715</v>
+        <v>5228781.543263705</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>43979.5</v>
+        <v>43981.95833333334</v>
       </c>
       <c r="B121">
-        <v>9161.67</v>
+        <v>9490.969999999999</v>
       </c>
       <c r="C121">
-        <v>9288.110000000001</v>
+        <v>9758.27</v>
       </c>
       <c r="D121">
-        <v>9152.59</v>
+        <v>9467.17</v>
       </c>
       <c r="E121">
-        <v>9265.92</v>
+        <v>9733.1</v>
       </c>
       <c r="F121">
-        <v>734.65206159</v>
+        <v>1770.32856031</v>
       </c>
       <c r="G121">
-        <v>6787086.494123177</v>
+        <v>17073102.90192248</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>43979.54166666666</v>
+        <v>43982</v>
       </c>
       <c r="B122">
-        <v>9265.92</v>
+        <v>9728.110000000001</v>
       </c>
       <c r="C122">
-        <v>9444.780000000001</v>
+        <v>9744.190000000001</v>
       </c>
       <c r="D122">
-        <v>9250.84</v>
+        <v>9645.93</v>
       </c>
       <c r="E122">
-        <v>9431.83</v>
+        <v>9705.1</v>
       </c>
       <c r="F122">
-        <v>1268.74106548</v>
+        <v>473.95924579</v>
       </c>
       <c r="G122">
-        <v>11869951.05579978</v>
+        <v>4594020.984669191</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>43979.58333333334</v>
+        <v>43982.04166666666</v>
       </c>
       <c r="B123">
-        <v>9432.51</v>
+        <v>9705.1</v>
       </c>
       <c r="C123">
-        <v>9459.469999999999</v>
+        <v>9711.700000000001</v>
       </c>
       <c r="D123">
-        <v>9383.42</v>
+        <v>9633.639999999999</v>
       </c>
       <c r="E123">
-        <v>9412.040000000001</v>
+        <v>9659.17</v>
       </c>
       <c r="F123">
-        <v>776.89939051</v>
+        <v>313.22352487</v>
       </c>
       <c r="G123">
-        <v>7309019.131161314</v>
+        <v>3027608.630779946</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>43979.625</v>
+        <v>43982.08333333334</v>
       </c>
       <c r="B124">
-        <v>9414.1</v>
+        <v>9659.17</v>
       </c>
       <c r="C124">
-        <v>9509.610000000001</v>
+        <v>9677</v>
       </c>
       <c r="D124">
-        <v>9414.1</v>
+        <v>9634.360000000001</v>
       </c>
       <c r="E124">
-        <v>9471.33</v>
+        <v>9656.85</v>
       </c>
       <c r="F124">
-        <v>1178.98535024</v>
+        <v>85.58510673000001</v>
       </c>
       <c r="G124">
-        <v>11159329.04479762</v>
+        <v>826417.1248945406</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>43979.66666666666</v>
+        <v>43982.125</v>
       </c>
       <c r="B125">
-        <v>9476.030000000001</v>
+        <v>9654.24</v>
       </c>
       <c r="C125">
-        <v>9523.5</v>
+        <v>9654.24</v>
       </c>
       <c r="D125">
-        <v>9444.030000000001</v>
+        <v>9615.16</v>
       </c>
       <c r="E125">
-        <v>9500.700000000001</v>
+        <v>9642.76</v>
       </c>
       <c r="F125">
-        <v>810.76343388</v>
+        <v>71.85318486</v>
       </c>
       <c r="G125">
-        <v>7688666.41557478</v>
+        <v>692211.9092624229</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>43979.70833333334</v>
+        <v>43982.16666666666</v>
       </c>
       <c r="B126">
-        <v>9507.42</v>
+        <v>9644.709999999999</v>
       </c>
       <c r="C126">
-        <v>9539.889999999999</v>
+        <v>9660.07</v>
       </c>
       <c r="D126">
-        <v>9439.870000000001</v>
+        <v>9537.49</v>
       </c>
       <c r="E126">
-        <v>9454.09</v>
+        <v>9589.84</v>
       </c>
       <c r="F126">
-        <v>661.22943276</v>
+        <v>284.16419085</v>
       </c>
       <c r="G126">
-        <v>6270798.190822335</v>
+        <v>2728257.263118439</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>43979.75</v>
+        <v>43982.20833333334</v>
       </c>
       <c r="B127">
-        <v>9452.719999999999</v>
+        <v>9581.73</v>
       </c>
       <c r="C127">
-        <v>9479.110000000001</v>
+        <v>9604.379999999999</v>
       </c>
       <c r="D127">
-        <v>9446.889999999999</v>
+        <v>9521</v>
       </c>
       <c r="E127">
-        <v>9470</v>
+        <v>9560.99</v>
       </c>
       <c r="F127">
-        <v>371.1826961</v>
+        <v>140.95975796</v>
       </c>
       <c r="G127">
-        <v>3514392.839964184</v>
+        <v>1347707.24330383</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>43979.79166666666</v>
+        <v>43982.25</v>
       </c>
       <c r="B128">
-        <v>9469.73</v>
+        <v>9559.07</v>
       </c>
       <c r="C128">
-        <v>9485.26</v>
+        <v>9616.35</v>
       </c>
       <c r="D128">
-        <v>9428.549999999999</v>
+        <v>9552.450000000001</v>
       </c>
       <c r="E128">
-        <v>9428.549999999999</v>
+        <v>9565</v>
       </c>
       <c r="F128">
-        <v>627.04633928</v>
+        <v>196.96332546</v>
       </c>
       <c r="G128">
-        <v>5930520.701357246</v>
+        <v>1886037.477726193</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>43979.83333333334</v>
+        <v>43982.29166666666</v>
       </c>
       <c r="B129">
-        <v>9428.559999999999</v>
+        <v>9564.940000000001</v>
       </c>
       <c r="C129">
-        <v>9484.629999999999</v>
+        <v>9580.41</v>
       </c>
       <c r="D129">
-        <v>9407.18</v>
+        <v>9540.16</v>
       </c>
       <c r="E129">
-        <v>9456.059999999999</v>
+        <v>9548.08</v>
       </c>
       <c r="F129">
-        <v>331.81215773</v>
+        <v>495.25886168</v>
       </c>
       <c r="G129">
-        <v>3135206.656533598</v>
+        <v>4731307.504533047</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>43979.875</v>
+        <v>43982.33333333334</v>
       </c>
       <c r="B130">
-        <v>9458.41</v>
+        <v>9542.34</v>
       </c>
       <c r="C130">
-        <v>9465.620000000001</v>
+        <v>9588.24</v>
       </c>
       <c r="D130">
-        <v>9422</v>
+        <v>9505.200000000001</v>
       </c>
       <c r="E130">
-        <v>9446.049999999999</v>
+        <v>9557.780000000001</v>
       </c>
       <c r="F130">
-        <v>572.0450551500001</v>
+        <v>127.37756448</v>
       </c>
       <c r="G130">
-        <v>5397419.106685855</v>
+        <v>1216494.408608098</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>43979.91666666666</v>
+        <v>43982.375</v>
       </c>
       <c r="B131">
-        <v>9446.65</v>
+        <v>9559.780000000001</v>
       </c>
       <c r="C131">
-        <v>9487.59</v>
+        <v>9582.48</v>
       </c>
       <c r="D131">
-        <v>9414</v>
+        <v>9522.1</v>
       </c>
       <c r="E131">
-        <v>9433.940000000001</v>
+        <v>9535.66</v>
       </c>
       <c r="F131">
-        <v>436.51533203</v>
+        <v>136.37586033</v>
       </c>
       <c r="G131">
-        <v>4119068.771520081</v>
+        <v>1302044.590850947</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>43979.95833333334</v>
+        <v>43982.41666666666</v>
       </c>
       <c r="B132">
-        <v>9435.48</v>
+        <v>9535.540000000001</v>
       </c>
       <c r="C132">
-        <v>9560.49</v>
+        <v>9600</v>
       </c>
       <c r="D132">
-        <v>9435.370000000001</v>
+        <v>9498.799999999999</v>
       </c>
       <c r="E132">
-        <v>9485.98</v>
+        <v>9561.969999999999</v>
       </c>
       <c r="F132">
-        <v>495.30765459</v>
+        <v>611.55077138</v>
       </c>
       <c r="G132">
-        <v>4704180.468287521</v>
+        <v>5844031.446332484</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>43980</v>
+        <v>43982.45833333334</v>
       </c>
       <c r="B133">
-        <v>9489.48</v>
+        <v>9556.67</v>
       </c>
       <c r="C133">
-        <v>9625.01</v>
+        <v>9605.51</v>
       </c>
       <c r="D133">
-        <v>9485.280000000001</v>
+        <v>9547.639999999999</v>
       </c>
       <c r="E133">
-        <v>9577.379999999999</v>
+        <v>9602.040000000001</v>
       </c>
       <c r="F133">
-        <v>942.14602747</v>
+        <v>236.68716968</v>
       </c>
       <c r="G133">
-        <v>9008933.275780199</v>
+        <v>2266226.021558127</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>43980.04166666666</v>
+        <v>43982.5</v>
       </c>
       <c r="B134">
-        <v>9581.49</v>
+        <v>9599.309999999999</v>
       </c>
       <c r="C134">
-        <v>9610</v>
+        <v>9602.76</v>
       </c>
       <c r="D134">
-        <v>9481.16</v>
+        <v>9563.700000000001</v>
       </c>
       <c r="E134">
-        <v>9514.58</v>
+        <v>9585.950000000001</v>
       </c>
       <c r="F134">
-        <v>1106.41417098</v>
+        <v>110.74337978</v>
       </c>
       <c r="G134">
-        <v>10555378.28218921</v>
+        <v>1061120.7341506</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>43980.08333333334</v>
+        <v>43982.54166666666</v>
       </c>
       <c r="B135">
-        <v>9513.58</v>
+        <v>9590</v>
       </c>
       <c r="C135">
-        <v>9535.15</v>
+        <v>9645</v>
       </c>
       <c r="D135">
-        <v>9463.200000000001</v>
+        <v>9550</v>
       </c>
       <c r="E135">
-        <v>9508.299999999999</v>
+        <v>9574.540000000001</v>
       </c>
       <c r="F135">
-        <v>198.79319088</v>
+        <v>234.42941729</v>
       </c>
       <c r="G135">
-        <v>1887493.432069337</v>
+        <v>2248228.811716061</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>43980.125</v>
+        <v>43982.58333333334</v>
       </c>
       <c r="B136">
-        <v>9506.75</v>
+        <v>9575.07</v>
       </c>
       <c r="C136">
-        <v>9536.440000000001</v>
+        <v>9592.23</v>
       </c>
       <c r="D136">
-        <v>9490.26</v>
+        <v>9479.379999999999</v>
       </c>
       <c r="E136">
-        <v>9503.26</v>
+        <v>9551.549999999999</v>
       </c>
       <c r="F136">
-        <v>92.13012711</v>
+        <v>530.719575</v>
       </c>
       <c r="G136">
-        <v>876236.0972146192</v>
+        <v>5057412.160456249</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>43980.16666666666</v>
+        <v>43982.625</v>
       </c>
       <c r="B137">
-        <v>9502.24</v>
+        <v>9551.860000000001</v>
       </c>
       <c r="C137">
-        <v>9530.9</v>
+        <v>9557.93</v>
       </c>
       <c r="D137">
-        <v>9490</v>
+        <v>9461.41</v>
       </c>
       <c r="E137">
-        <v>9518.5</v>
+        <v>9470</v>
       </c>
       <c r="F137">
-        <v>150.16127014</v>
+        <v>276.5300388</v>
       </c>
       <c r="G137">
-        <v>1427101.565446324</v>
+        <v>2630580.341339068</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>43980.20833333334</v>
+        <v>43982.66666666666</v>
       </c>
       <c r="B138">
-        <v>9512.1</v>
+        <v>9467.66</v>
       </c>
       <c r="C138">
-        <v>9534.639999999999</v>
+        <v>9494.889999999999</v>
       </c>
       <c r="D138">
-        <v>9490</v>
+        <v>9434.33</v>
       </c>
       <c r="E138">
-        <v>9491.01</v>
+        <v>9476.200000000001</v>
       </c>
       <c r="F138">
-        <v>105.42306364</v>
+        <v>259.43897635</v>
       </c>
       <c r="G138">
-        <v>1002431.490250746</v>
+        <v>2455382.137420588</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>43980.25</v>
+        <v>43982.70833333334</v>
       </c>
       <c r="B139">
-        <v>9491.01</v>
+        <v>9475.790000000001</v>
       </c>
       <c r="C139">
-        <v>9530.9</v>
+        <v>9528.860000000001</v>
       </c>
       <c r="D139">
-        <v>9468.219999999999</v>
+        <v>9458.879999999999</v>
       </c>
       <c r="E139">
-        <v>9518.709999999999</v>
+        <v>9520.18</v>
       </c>
       <c r="F139">
-        <v>118.5416208</v>
+        <v>199.29507799</v>
       </c>
       <c r="G139">
-        <v>1126602.922699783</v>
+        <v>1893876.956225859</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>43980.29166666666</v>
+        <v>43982.75</v>
       </c>
       <c r="B140">
-        <v>9511.66</v>
+        <v>9523.08</v>
       </c>
       <c r="C140">
-        <v>9549.83</v>
+        <v>9532.68</v>
       </c>
       <c r="D140">
-        <v>9501</v>
+        <v>9485.280000000001</v>
       </c>
       <c r="E140">
-        <v>9517.379999999999</v>
+        <v>9504.18</v>
       </c>
       <c r="F140">
-        <v>175.91505342</v>
+        <v>124.33479831</v>
       </c>
       <c r="G140">
-        <v>1675752.633038762</v>
+        <v>1182396.907074164</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>43980.33333333334</v>
+        <v>43982.79166666666</v>
       </c>
       <c r="B141">
-        <v>9506.26</v>
+        <v>9496.129999999999</v>
       </c>
       <c r="C141">
-        <v>9536.620000000001</v>
+        <v>9504.4</v>
       </c>
       <c r="D141">
-        <v>9501.5</v>
+        <v>9456.870000000001</v>
       </c>
       <c r="E141">
-        <v>9518.879999999999</v>
+        <v>9488.219999999999</v>
       </c>
       <c r="F141">
-        <v>86.7833758</v>
+        <v>99.01334984</v>
       </c>
       <c r="G141">
-        <v>826262.3911507326</v>
+        <v>938583.4686173366</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>43980.375</v>
+        <v>43982.83333333334</v>
       </c>
       <c r="B142">
-        <v>9517.219999999999</v>
+        <v>9490.219999999999</v>
       </c>
       <c r="C142">
-        <v>9592</v>
+        <v>9530.9</v>
       </c>
       <c r="D142">
-        <v>9420</v>
+        <v>9475.290000000001</v>
       </c>
       <c r="E142">
-        <v>9449.51</v>
+        <v>9507.950000000001</v>
       </c>
       <c r="F142">
-        <v>631.96619014</v>
+        <v>76.41405073999999</v>
       </c>
       <c r="G142">
-        <v>5997785.930220319</v>
+        <v>726740.3436888681</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>43980.41666666666</v>
+        <v>43982.875</v>
       </c>
       <c r="B143">
-        <v>9451</v>
+        <v>9511.65</v>
       </c>
       <c r="C143">
-        <v>9477.030000000001</v>
+        <v>9520</v>
       </c>
       <c r="D143">
-        <v>9434.209999999999</v>
+        <v>9483.719999999999</v>
       </c>
       <c r="E143">
-        <v>9442.93</v>
+        <v>9506.440000000001</v>
       </c>
       <c r="F143">
-        <v>182.60444828</v>
+        <v>50.40756397</v>
       </c>
       <c r="G143">
-        <v>1726701.256515234</v>
+        <v>478902.5025245712</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>43980.45833333334</v>
+        <v>43982.91666666666</v>
       </c>
       <c r="B144">
-        <v>9440.790000000001</v>
+        <v>9506.209999999999</v>
       </c>
       <c r="C144">
-        <v>9469.25</v>
+        <v>9506.209999999999</v>
       </c>
       <c r="D144">
-        <v>9355</v>
+        <v>9409.940000000001</v>
       </c>
       <c r="E144">
-        <v>9364.030000000001</v>
+        <v>9460.040000000001</v>
       </c>
       <c r="F144">
-        <v>644.06733141</v>
+        <v>177.12518923</v>
       </c>
       <c r="G144">
-        <v>6061927.213734047</v>
+        <v>1673161.374307618</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>43980.5</v>
+        <v>43982.95833333334</v>
       </c>
       <c r="B145">
-        <v>9358.059999999999</v>
+        <v>9460.459999999999</v>
       </c>
       <c r="C145">
-        <v>9416.190000000001</v>
+        <v>9519.469999999999</v>
       </c>
       <c r="D145">
-        <v>9332.65</v>
+        <v>9412.48</v>
       </c>
       <c r="E145">
-        <v>9402.870000000001</v>
+        <v>9456.08</v>
       </c>
       <c r="F145">
-        <v>483.20211998</v>
+        <v>294.74736607</v>
       </c>
       <c r="G145">
-        <v>4534938.424906667</v>
+        <v>2793719.472706454</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>43980.54166666666</v>
+        <v>43983</v>
       </c>
       <c r="B146">
-        <v>9396.049999999999</v>
+        <v>9450.51</v>
       </c>
       <c r="C146">
-        <v>9451.200000000001</v>
+        <v>9475.129999999999</v>
       </c>
       <c r="D146">
-        <v>9368.700000000001</v>
+        <v>9373.959999999999</v>
       </c>
       <c r="E146">
-        <v>9397.01</v>
+        <v>9446.190000000001</v>
       </c>
       <c r="F146">
-        <v>311.61098916</v>
+        <v>540.08016792</v>
       </c>
       <c r="G146">
-        <v>2934159.75936806</v>
+        <v>5079923.117618671</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>43980.58333333334</v>
+        <v>43983.04166666666</v>
       </c>
       <c r="B147">
-        <v>9395</v>
+        <v>9444.129999999999</v>
       </c>
       <c r="C147">
-        <v>9443.629999999999</v>
+        <v>9505.639999999999</v>
       </c>
       <c r="D147">
-        <v>9384.059999999999</v>
+        <v>9416.5</v>
       </c>
       <c r="E147">
-        <v>9431.790000000001</v>
+        <v>9493.450000000001</v>
       </c>
       <c r="F147">
-        <v>453.65384716</v>
+        <v>304.19831198</v>
       </c>
       <c r="G147">
-        <v>4272206.339187992</v>
+        <v>2884969.749884303</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>43980.625</v>
+        <v>43983.08333333334</v>
       </c>
       <c r="B148">
-        <v>9431.68</v>
+        <v>9493.299999999999</v>
       </c>
       <c r="C148">
-        <v>9478</v>
+        <v>9574.99</v>
       </c>
       <c r="D148">
-        <v>9420.15</v>
+        <v>9463.559999999999</v>
       </c>
       <c r="E148">
-        <v>9441.65</v>
+        <v>9546.98</v>
       </c>
       <c r="F148">
-        <v>529.08486425</v>
+        <v>268.0100889</v>
       </c>
       <c r="G148">
-        <v>4994949.219576238</v>
+        <v>2547257.532382932</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>43980.66666666666</v>
+        <v>43983.125</v>
       </c>
       <c r="B149">
-        <v>9446.76</v>
+        <v>9553.799999999999</v>
       </c>
       <c r="C149">
-        <v>9450.98</v>
+        <v>9561.07</v>
       </c>
       <c r="D149">
-        <v>9330</v>
+        <v>9519.299999999999</v>
       </c>
       <c r="E149">
-        <v>9404.940000000001</v>
+        <v>9529.629999999999</v>
       </c>
       <c r="F149">
-        <v>392.44715642</v>
+        <v>189.20637037</v>
       </c>
       <c r="G149">
-        <v>3683443.511115749</v>
+        <v>1804967.202655709</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>43980.70833333334</v>
+        <v>43983.16666666666</v>
       </c>
       <c r="B150">
-        <v>9402.610000000001</v>
+        <v>9530.01</v>
       </c>
       <c r="C150">
-        <v>9448.67</v>
+        <v>9557.85</v>
       </c>
       <c r="D150">
-        <v>9392.059999999999</v>
+        <v>9513.77</v>
       </c>
       <c r="E150">
-        <v>9428.5</v>
+        <v>9543.25</v>
       </c>
       <c r="F150">
-        <v>206.91062877</v>
+        <v>128.65837501</v>
       </c>
       <c r="G150">
-        <v>1950368.420523182</v>
+        <v>1226839.040153007</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>43980.75</v>
+        <v>43983.20833333334</v>
       </c>
       <c r="B151">
-        <v>9428.32</v>
+        <v>9550</v>
       </c>
       <c r="C151">
-        <v>9451.200000000001</v>
+        <v>9611.49</v>
       </c>
       <c r="D151">
-        <v>9411.030000000001</v>
+        <v>9540.52</v>
       </c>
       <c r="E151">
-        <v>9425.139999999999</v>
+        <v>9544.459999999999</v>
       </c>
       <c r="F151">
-        <v>309.17155357</v>
+        <v>168.43411898</v>
       </c>
       <c r="G151">
-        <v>2915318.277971054</v>
+        <v>1614120.615077262</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>43980.79166666666</v>
+        <v>43983.25</v>
       </c>
       <c r="B152">
-        <v>9416.41</v>
+        <v>9549.92</v>
       </c>
       <c r="C152">
-        <v>9439.860000000001</v>
+        <v>9563.129999999999</v>
       </c>
       <c r="D152">
-        <v>9394.07</v>
+        <v>9523.969999999999</v>
       </c>
       <c r="E152">
-        <v>9426.809999999999</v>
+        <v>9527.34</v>
       </c>
       <c r="F152">
-        <v>304.6277488</v>
+        <v>98.18439644</v>
       </c>
       <c r="G152">
-        <v>2867453.244917733</v>
+        <v>936873.7579121867</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>43980.83333333334</v>
+        <v>43983.29166666666</v>
       </c>
       <c r="B153">
-        <v>9427.780000000001</v>
+        <v>9534.809999999999</v>
       </c>
       <c r="C153">
-        <v>9431.48</v>
+        <v>9556.549999999999</v>
       </c>
       <c r="D153">
-        <v>9391.65</v>
+        <v>9525.25</v>
       </c>
       <c r="E153">
-        <v>9403.99</v>
+        <v>9528.35</v>
       </c>
       <c r="F153">
-        <v>89.54856087</v>
+        <v>97.79116739</v>
       </c>
       <c r="G153">
-        <v>842782.4127151452</v>
+        <v>932567.6654415861</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>43980.875</v>
+        <v>43983.33333333334</v>
       </c>
       <c r="B154">
-        <v>9395.26</v>
+        <v>9532.09</v>
       </c>
       <c r="C154">
-        <v>9428.549999999999</v>
+        <v>9578.73</v>
       </c>
       <c r="D154">
-        <v>9384.9</v>
+        <v>9530.639999999999</v>
       </c>
       <c r="E154">
-        <v>9421.34</v>
+        <v>9562.51</v>
       </c>
       <c r="F154">
-        <v>85.28378759</v>
+        <v>155.57700739</v>
       </c>
       <c r="G154">
-        <v>803159.875003532</v>
+        <v>1486944.399508311</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>43980.91666666666</v>
+        <v>43983.375</v>
       </c>
       <c r="B155">
-        <v>9419.370000000001</v>
+        <v>9563.280000000001</v>
       </c>
       <c r="C155">
-        <v>9422.290000000001</v>
+        <v>9574.120000000001</v>
       </c>
       <c r="D155">
-        <v>9372.17</v>
+        <v>9525.219999999999</v>
       </c>
       <c r="E155">
-        <v>9394.860000000001</v>
+        <v>9527.17</v>
       </c>
       <c r="F155">
-        <v>94.56412735000001</v>
+        <v>72.99060901</v>
       </c>
       <c r="G155">
-        <v>887966.1235702117</v>
+        <v>696785.1355950894</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>43980.95833333334</v>
+        <v>43983.41666666666</v>
       </c>
       <c r="B156">
-        <v>9392.129999999999</v>
+        <v>9533.66</v>
       </c>
       <c r="C156">
-        <v>9436.58</v>
+        <v>9552.65</v>
       </c>
       <c r="D156">
-        <v>9369.5</v>
+        <v>9521.5</v>
       </c>
       <c r="E156">
-        <v>9427.440000000001</v>
+        <v>9534.610000000001</v>
       </c>
       <c r="F156">
-        <v>148.81415416</v>
+        <v>53.11533588</v>
       </c>
       <c r="G156">
-        <v>1401140.554409149</v>
+        <v>506513.3547001142</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>43981</v>
+        <v>43983.45833333334</v>
       </c>
       <c r="B157">
-        <v>9429.950000000001</v>
+        <v>9532.42</v>
       </c>
       <c r="C157">
-        <v>9454.049999999999</v>
+        <v>9551.73</v>
       </c>
       <c r="D157">
-        <v>9412.33</v>
+        <v>9509.4</v>
       </c>
       <c r="E157">
-        <v>9421.040000000001</v>
+        <v>9535.02</v>
       </c>
       <c r="F157">
-        <v>324.69433897</v>
+        <v>303.61110812</v>
       </c>
       <c r="G157">
-        <v>3066575.706975823</v>
+        <v>2893471.801879014</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>43981.04166666666</v>
+        <v>43983.5</v>
       </c>
       <c r="B158">
-        <v>9428.52</v>
+        <v>9541.98</v>
       </c>
       <c r="C158">
-        <v>9428.52</v>
+        <v>9553.440000000001</v>
       </c>
       <c r="D158">
-        <v>9355.32</v>
+        <v>9505</v>
       </c>
       <c r="E158">
-        <v>9371.280000000001</v>
+        <v>9510.950000000001</v>
       </c>
       <c r="F158">
-        <v>169.097625</v>
+        <v>172.71772129</v>
       </c>
       <c r="G158">
-        <v>1587241.385764191</v>
+        <v>1645321.702355262</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>43981.08333333334</v>
+        <v>43983.54166666666</v>
       </c>
       <c r="B159">
-        <v>9364.51</v>
+        <v>9514.01</v>
       </c>
       <c r="C159">
-        <v>9396.58</v>
+        <v>9600</v>
       </c>
       <c r="D159">
-        <v>9344.1</v>
+        <v>9495.82</v>
       </c>
       <c r="E159">
-        <v>9378.190000000001</v>
+        <v>9561.08</v>
       </c>
       <c r="F159">
-        <v>263.10265415</v>
+        <v>670.49681528</v>
       </c>
       <c r="G159">
-        <v>2463995.368023289</v>
+        <v>6409347.112364942</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>43981.125</v>
+        <v>43983.58333333334</v>
       </c>
       <c r="B160">
-        <v>9362.4</v>
+        <v>9563.469999999999</v>
       </c>
       <c r="C160">
-        <v>9390.4</v>
+        <v>9575.299999999999</v>
       </c>
       <c r="D160">
-        <v>9361</v>
+        <v>9538.41</v>
       </c>
       <c r="E160">
-        <v>9385.530000000001</v>
+        <v>9547.610000000001</v>
       </c>
       <c r="F160">
-        <v>42.86967329</v>
+        <v>315.7072027</v>
       </c>
       <c r="G160">
-        <v>401908.1835929669</v>
+        <v>3016713.735698985</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>43981.16666666666</v>
+        <v>43983.625</v>
       </c>
       <c r="B161">
-        <v>9379.27</v>
+        <v>9554.440000000001</v>
       </c>
       <c r="C161">
-        <v>9393.190000000001</v>
+        <v>9582.48</v>
       </c>
       <c r="D161">
-        <v>9326.280000000001</v>
+        <v>9545</v>
       </c>
       <c r="E161">
-        <v>9387.959999999999</v>
+        <v>9565.379999999999</v>
       </c>
       <c r="F161">
-        <v>110.89774846</v>
+        <v>207.53094964</v>
       </c>
       <c r="G161">
-        <v>1037332.397268442</v>
+        <v>1984401.06309853</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>43981.20833333334</v>
+        <v>43983.66666666666</v>
       </c>
       <c r="B162">
-        <v>9394.68</v>
+        <v>9566.110000000001</v>
       </c>
       <c r="C162">
-        <v>9560.139999999999</v>
+        <v>9567</v>
       </c>
       <c r="D162">
-        <v>9386.870000000001</v>
+        <v>9496.66</v>
       </c>
       <c r="E162">
-        <v>9507.07</v>
+        <v>9537.18</v>
       </c>
       <c r="F162">
-        <v>362.26089292</v>
+        <v>261.62427921</v>
       </c>
       <c r="G162">
-        <v>3435084.66168379</v>
+        <v>2491963.375439153</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>43981.25</v>
+        <v>43983.70833333334</v>
       </c>
       <c r="B163">
-        <v>9506.58</v>
+        <v>9539.23</v>
       </c>
       <c r="C163">
-        <v>9560.07</v>
+        <v>9614.68</v>
       </c>
       <c r="D163">
-        <v>9497.49</v>
+        <v>9532.17</v>
       </c>
       <c r="E163">
-        <v>9553</v>
+        <v>9588.24</v>
       </c>
       <c r="F163">
-        <v>143.94240976</v>
+        <v>338.5965761</v>
       </c>
       <c r="G163">
-        <v>1371803.650738508</v>
+        <v>3243365.505638561</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>43981.29166666666</v>
+        <v>43983.75</v>
       </c>
       <c r="B164">
-        <v>9553</v>
+        <v>9589.780000000001</v>
       </c>
       <c r="C164">
-        <v>9597.040000000001</v>
+        <v>9596.98</v>
       </c>
       <c r="D164">
-        <v>9531.5</v>
+        <v>9565.02</v>
       </c>
       <c r="E164">
-        <v>9537.67</v>
+        <v>9575.66</v>
       </c>
       <c r="F164">
-        <v>364.29885237</v>
+        <v>69.20945456</v>
       </c>
       <c r="G164">
-        <v>3483937.042873733</v>
+        <v>663116.6874805597</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>43981.33333333334</v>
+        <v>43983.79166666666</v>
       </c>
       <c r="B165">
-        <v>9545.299999999999</v>
+        <v>9576.32</v>
       </c>
       <c r="C165">
-        <v>9562.84</v>
+        <v>9589.440000000001</v>
       </c>
       <c r="D165">
-        <v>9512.639999999999</v>
+        <v>9562.219999999999</v>
       </c>
       <c r="E165">
-        <v>9530.370000000001</v>
+        <v>9584.559999999999</v>
       </c>
       <c r="F165">
-        <v>233.60632857</v>
+        <v>103.78403414</v>
       </c>
       <c r="G165">
-        <v>2229083.284949804</v>
+        <v>993772.8233657395</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>43981.375</v>
+        <v>43983.83333333334</v>
       </c>
       <c r="B166">
-        <v>9523.76</v>
+        <v>9584.99</v>
       </c>
       <c r="C166">
-        <v>9558.389999999999</v>
+        <v>9619.84</v>
       </c>
       <c r="D166">
-        <v>9523.76</v>
+        <v>9563.25</v>
       </c>
       <c r="E166">
-        <v>9526.48</v>
+        <v>9580.02</v>
       </c>
       <c r="F166">
-        <v>113.97029546</v>
+        <v>258.80862785</v>
       </c>
       <c r="G166">
-        <v>1087528.923604185</v>
+        <v>2482325.741252337</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>43981.41666666666</v>
+        <v>43983.875</v>
       </c>
       <c r="B167">
-        <v>9532.76</v>
+        <v>9571.27</v>
       </c>
       <c r="C167">
-        <v>9537.290000000001</v>
+        <v>9700</v>
       </c>
       <c r="D167">
-        <v>9462.549999999999</v>
+        <v>9557.780000000001</v>
       </c>
       <c r="E167">
-        <v>9493.42</v>
+        <v>9688.110000000001</v>
       </c>
       <c r="F167">
-        <v>195.86517837</v>
+        <v>460.78927649</v>
       </c>
       <c r="G167">
-        <v>1859801.984376701</v>
+        <v>4444172.844878542</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>43981.45833333334</v>
+        <v>43983.91666666666</v>
       </c>
       <c r="B168">
-        <v>9497.9</v>
+        <v>9684.389999999999</v>
       </c>
       <c r="C168">
-        <v>9537.16</v>
+        <v>9710</v>
       </c>
       <c r="D168">
-        <v>9487.360000000001</v>
+        <v>9630.43</v>
       </c>
       <c r="E168">
-        <v>9520.049999999999</v>
+        <v>9656.299999999999</v>
       </c>
       <c r="F168">
-        <v>141.14758736</v>
+        <v>271.12633985</v>
       </c>
       <c r="G168">
-        <v>1343169.260096766</v>
+        <v>2621797.533628781</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>43981.5</v>
+        <v>43983.95833333334</v>
       </c>
       <c r="B169">
-        <v>9521.790000000001</v>
+        <v>9656.110000000001</v>
       </c>
       <c r="C169">
-        <v>9580</v>
+        <v>9769.4</v>
       </c>
       <c r="D169">
-        <v>9520.280000000001</v>
+        <v>9656.110000000001</v>
       </c>
       <c r="E169">
-        <v>9552.690000000001</v>
+        <v>9752.790000000001</v>
       </c>
       <c r="F169">
-        <v>285.31885655</v>
+        <v>716.65879261</v>
       </c>
       <c r="G169">
-        <v>2726678.468631151</v>
+        <v>6965921.282551834</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>43981.54166666666</v>
+        <v>43984</v>
       </c>
       <c r="B170">
-        <v>9550</v>
+        <v>9753.24</v>
       </c>
       <c r="C170">
-        <v>9557.860000000001</v>
+        <v>10429.26</v>
       </c>
       <c r="D170">
-        <v>9506.85</v>
+        <v>9753.24</v>
       </c>
       <c r="E170">
-        <v>9544.6</v>
+        <v>10203.64</v>
       </c>
       <c r="F170">
-        <v>140.18963267</v>
+        <v>6422.07070891</v>
       </c>
       <c r="G170">
-        <v>1335792.366931253</v>
+        <v>64985836.43026966</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="2">
-        <v>43981.58333333334</v>
+        <v>43984.04166666666</v>
       </c>
       <c r="B171">
-        <v>9548.309999999999</v>
+        <v>10203.64</v>
       </c>
       <c r="C171">
-        <v>9573.25</v>
+        <v>10241.26</v>
       </c>
       <c r="D171">
-        <v>9519.9</v>
+        <v>10108.92</v>
       </c>
       <c r="E171">
-        <v>9560.860000000001</v>
+        <v>10125.81</v>
       </c>
       <c r="F171">
-        <v>118.82105732</v>
+        <v>1546.20854517</v>
       </c>
       <c r="G171">
-        <v>1133906.4912678</v>
+        <v>15728876.48445391</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="2">
-        <v>43981.625</v>
+        <v>43984.08333333334</v>
       </c>
       <c r="B172">
-        <v>9565.26</v>
+        <v>10125.81</v>
       </c>
       <c r="C172">
-        <v>9576.75</v>
+        <v>10150</v>
       </c>
       <c r="D172">
-        <v>9537.98</v>
+        <v>10060.97</v>
       </c>
       <c r="E172">
-        <v>9542.34</v>
+        <v>10133.4</v>
       </c>
       <c r="F172">
-        <v>148.45200231</v>
+        <v>2600.18546702</v>
       </c>
       <c r="G172">
-        <v>1418770.802567262</v>
+        <v>26258774.08653767</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="2">
-        <v>43981.66666666666</v>
+        <v>43984.125</v>
       </c>
       <c r="B173">
-        <v>9551.52</v>
+        <v>10123.75</v>
       </c>
       <c r="C173">
-        <v>9552</v>
+        <v>10129.05</v>
       </c>
       <c r="D173">
-        <v>9496.66</v>
+        <v>10078.66</v>
       </c>
       <c r="E173">
-        <v>9541.309999999999</v>
+        <v>10089.85</v>
       </c>
       <c r="F173">
-        <v>87.24013701</v>
+        <v>487.68685236</v>
       </c>
       <c r="G173">
-        <v>830475.6602122907</v>
+        <v>4928236.172184655</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="2">
-        <v>43981.70833333334</v>
+        <v>43984.16666666666</v>
       </c>
       <c r="B174">
-        <v>9541.469999999999</v>
+        <v>10089.85</v>
       </c>
       <c r="C174">
-        <v>9555.58</v>
+        <v>10110.87</v>
       </c>
       <c r="D174">
-        <v>9513.58</v>
+        <v>10035.76</v>
       </c>
       <c r="E174">
-        <v>9544.85</v>
+        <v>10093.41</v>
       </c>
       <c r="F174">
-        <v>105.07252539</v>
+        <v>1110.36894504</v>
       </c>
       <c r="G174">
-        <v>1002388.340202019</v>
+        <v>11176268.65580606</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="2">
-        <v>43981.75</v>
+        <v>43984.20833333334</v>
       </c>
       <c r="B175">
-        <v>9545.280000000001</v>
+        <v>10097.06</v>
       </c>
       <c r="C175">
-        <v>9548.07</v>
+        <v>10110</v>
       </c>
       <c r="D175">
-        <v>9518</v>
+        <v>10077.67</v>
       </c>
       <c r="E175">
-        <v>9530.08</v>
+        <v>10077.67</v>
       </c>
       <c r="F175">
-        <v>89.78015603</v>
+        <v>57.55851137</v>
       </c>
       <c r="G175">
-        <v>855731.1214281782</v>
+        <v>581164.8413149578</v>
       </c>
     </row>
   </sheetData>
